--- a/raw_data/20200818_saline/20200818_Sensor0_Test_37.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_37.xlsx
@@ -1,718 +1,1134 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB928963-700A-434C-B639-99A728D05F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>32402.883657</v>
+        <v>32402.883656999998</v>
       </c>
       <c r="B2" s="1">
-        <v>9.000801</v>
+        <v>9.0008009999999992</v>
       </c>
       <c r="C2" s="1">
-        <v>905.998000</v>
+        <v>905.99800000000005</v>
       </c>
       <c r="D2" s="1">
-        <v>-197.665000</v>
+        <v>-197.66499999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>32413.316508</v>
       </c>
       <c r="G2" s="1">
-        <v>9.003699</v>
+        <v>9.0036989999999992</v>
       </c>
       <c r="H2" s="1">
-        <v>923.420000</v>
+        <v>923.42</v>
       </c>
       <c r="I2" s="1">
-        <v>-167.829000</v>
+        <v>-167.82900000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>32424.128829</v>
+        <v>32424.128829000001</v>
       </c>
       <c r="L2" s="1">
-        <v>9.006702</v>
+        <v>9.0067020000000007</v>
       </c>
       <c r="M2" s="1">
-        <v>946.297000</v>
+        <v>946.29700000000003</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.213000</v>
+        <v>-120.21299999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>32434.546768</v>
       </c>
       <c r="Q2" s="1">
-        <v>9.009596</v>
+        <v>9.0095960000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>952.763000</v>
+        <v>952.76300000000003</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.616000</v>
+        <v>-104.616</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>32445.099683</v>
       </c>
       <c r="V2" s="1">
-        <v>9.012528</v>
+        <v>9.0125279999999997</v>
       </c>
       <c r="W2" s="1">
-        <v>959.277000</v>
+        <v>959.27700000000004</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.570900</v>
+        <v>-90.570899999999995</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>32455.518613</v>
       </c>
       <c r="AA2" s="1">
-        <v>9.015422</v>
+        <v>9.0154219999999992</v>
       </c>
       <c r="AB2" s="1">
-        <v>966.685000</v>
+        <v>966.68499999999995</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.811100</v>
+        <v>-80.811099999999996</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>32466.074967</v>
       </c>
       <c r="AF2" s="1">
-        <v>9.018354</v>
+        <v>9.0183540000000004</v>
       </c>
       <c r="AG2" s="1">
-        <v>971.559000</v>
+        <v>971.55899999999997</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.237200</v>
+        <v>-80.237200000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>32477.186841</v>
+        <v>32477.186840999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>9.021441</v>
+        <v>9.0214409999999994</v>
       </c>
       <c r="AL2" s="1">
-        <v>979.410000</v>
+        <v>979.41</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.816700</v>
+        <v>-87.816699999999997</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>32487.759562</v>
+        <v>32487.759561999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>9.024378</v>
+        <v>9.0243780000000005</v>
       </c>
       <c r="AQ2" s="1">
-        <v>988.530000</v>
+        <v>988.53</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.658000</v>
+        <v>-102.658</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>32498.509357</v>
+        <v>32498.509356999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>9.027364</v>
+        <v>9.0273640000000004</v>
       </c>
       <c r="AV2" s="1">
-        <v>999.793000</v>
+        <v>999.79300000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.174000</v>
+        <v>-124.17400000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>32508.935276</v>
       </c>
       <c r="AZ2" s="1">
-        <v>9.030260</v>
+        <v>9.0302600000000002</v>
       </c>
       <c r="BA2" s="1">
-        <v>1009.350000</v>
+        <v>1009.35</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.947000</v>
+        <v>-142.947</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>32519.536257</v>
       </c>
       <c r="BE2" s="1">
-        <v>9.033205</v>
+        <v>9.0332050000000006</v>
       </c>
       <c r="BF2" s="1">
-        <v>1054.250000</v>
+        <v>1054.25</v>
       </c>
       <c r="BG2" s="1">
-        <v>-228.182000</v>
+        <v>-228.18199999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>32530.154145</v>
       </c>
       <c r="BJ2" s="1">
-        <v>9.036154</v>
+        <v>9.0361539999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1133.360000</v>
+        <v>1133.3599999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-365.446000</v>
+        <v>-365.44600000000003</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>32541.566733</v>
       </c>
       <c r="BO2" s="1">
-        <v>9.039324</v>
+        <v>9.0393240000000006</v>
       </c>
       <c r="BP2" s="1">
-        <v>1264.720000</v>
+        <v>1264.72</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-577.985000</v>
+        <v>-577.98500000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>32551.906693</v>
+        <v>32551.906693000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>9.042196</v>
+        <v>9.0421960000000006</v>
       </c>
       <c r="BU2" s="1">
-        <v>1412.950000</v>
+        <v>1412.95</v>
       </c>
       <c r="BV2" s="1">
-        <v>-805.626000</v>
+        <v>-805.62599999999998</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>32562.356407</v>
+        <v>32562.356406999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>9.045099</v>
+        <v>9.0450990000000004</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1575.300000</v>
+        <v>1575.3</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1043.040000</v>
+        <v>-1043.04</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>32573.277823</v>
@@ -721,544 +1137,544 @@
         <v>9.048133</v>
       </c>
       <c r="CE2" s="1">
-        <v>1988.090000</v>
+        <v>1988.09</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1599.530000</v>
+        <v>-1599.53</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>32403.289882</v>
+        <v>32403.289882000001</v>
       </c>
       <c r="B3" s="1">
-        <v>9.000914</v>
+        <v>9.0009139999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>906.103000</v>
+        <v>906.10299999999995</v>
       </c>
       <c r="D3" s="1">
-        <v>-197.801000</v>
+        <v>-197.80099999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>32414.039180</v>
+        <v>32414.03918</v>
       </c>
       <c r="G3" s="1">
-        <v>9.003900</v>
+        <v>9.0038999999999998</v>
       </c>
       <c r="H3" s="1">
-        <v>923.510000</v>
+        <v>923.51</v>
       </c>
       <c r="I3" s="1">
-        <v>-167.767000</v>
+        <v>-167.767</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>32424.462110</v>
+        <v>32424.46211</v>
       </c>
       <c r="L3" s="1">
-        <v>9.006795</v>
+        <v>9.0067950000000003</v>
       </c>
       <c r="M3" s="1">
-        <v>946.000000</v>
+        <v>946</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.044000</v>
+        <v>-120.044</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>32434.898463</v>
+        <v>32434.898463000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>9.009694</v>
+        <v>9.0096939999999996</v>
       </c>
       <c r="R3" s="1">
-        <v>952.731000</v>
+        <v>952.73099999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.622000</v>
+        <v>-104.622</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>32445.444405</v>
+        <v>32445.444404999998</v>
       </c>
       <c r="V3" s="1">
-        <v>9.012623</v>
+        <v>9.0126229999999996</v>
       </c>
       <c r="W3" s="1">
-        <v>959.368000</v>
+        <v>959.36800000000005</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.651600</v>
+        <v>-90.651600000000002</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>32456.188746</v>
       </c>
       <c r="AA3" s="1">
-        <v>9.015608</v>
+        <v>9.0156080000000003</v>
       </c>
       <c r="AB3" s="1">
-        <v>966.542000</v>
+        <v>966.54200000000003</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.911700</v>
+        <v>-80.911699999999996</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>32466.772342</v>
       </c>
       <c r="AF3" s="1">
-        <v>9.018548</v>
+        <v>9.0185479999999991</v>
       </c>
       <c r="AG3" s="1">
-        <v>971.523000</v>
+        <v>971.52300000000002</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.194800</v>
+        <v>-80.194800000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>32477.599048</v>
       </c>
       <c r="AK3" s="1">
-        <v>9.021555</v>
+        <v>9.0215549999999993</v>
       </c>
       <c r="AL3" s="1">
-        <v>979.432000</v>
+        <v>979.43200000000002</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.825600</v>
+        <v>-87.825599999999994</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>32488.185625</v>
+        <v>32488.185624999998</v>
       </c>
       <c r="AP3" s="1">
-        <v>9.024496</v>
+        <v>9.0244959999999992</v>
       </c>
       <c r="AQ3" s="1">
-        <v>988.520000</v>
+        <v>988.52</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.666000</v>
+        <v>-102.666</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>32498.898251</v>
+        <v>32498.898250999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>9.027472</v>
+        <v>9.0274719999999995</v>
       </c>
       <c r="AV3" s="1">
-        <v>999.783000</v>
+        <v>999.78300000000002</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.183000</v>
+        <v>-124.18300000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>32509.300317</v>
+        <v>32509.300317000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>9.030361</v>
+        <v>9.0303609999999992</v>
       </c>
       <c r="BA3" s="1">
-        <v>1009.320000</v>
+        <v>1009.32</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.933000</v>
+        <v>-142.93299999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>32519.914735</v>
+        <v>32519.914734999998</v>
       </c>
       <c r="BE3" s="1">
-        <v>9.033310</v>
+        <v>9.0333100000000002</v>
       </c>
       <c r="BF3" s="1">
-        <v>1054.250000</v>
+        <v>1054.25</v>
       </c>
       <c r="BG3" s="1">
-        <v>-228.200000</v>
+        <v>-228.2</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>32530.562323</v>
+        <v>32530.562322999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>9.036267</v>
+        <v>9.0362670000000005</v>
       </c>
       <c r="BK3" s="1">
-        <v>1133.360000</v>
+        <v>1133.3599999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-365.413000</v>
+        <v>-365.41300000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>32541.679683</v>
+        <v>32541.679682999998</v>
       </c>
       <c r="BO3" s="1">
-        <v>9.039355</v>
+        <v>9.0393550000000005</v>
       </c>
       <c r="BP3" s="1">
-        <v>1264.730000</v>
+        <v>1264.73</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-578.023000</v>
+        <v>-578.02300000000002</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>32552.068392</v>
+        <v>32552.068392000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>9.042241</v>
+        <v>9.0422410000000006</v>
       </c>
       <c r="BU3" s="1">
-        <v>1412.970000</v>
+        <v>1412.97</v>
       </c>
       <c r="BV3" s="1">
-        <v>-805.712000</v>
+        <v>-805.71199999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>32562.819638</v>
+        <v>32562.819638000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>9.045228</v>
+        <v>9.0452279999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1575.300000</v>
+        <v>1575.3</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1043.110000</v>
+        <v>-1043.1099999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>32573.821896</v>
+        <v>32573.821896000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>9.048284</v>
+        <v>9.0482840000000007</v>
       </c>
       <c r="CE3" s="1">
-        <v>1987.300000</v>
+        <v>1987.3</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1598.010000</v>
+        <v>-1598.01</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>32403.972377</v>
+        <v>32403.972376999998</v>
       </c>
       <c r="B4" s="1">
-        <v>9.001103</v>
+        <v>9.0011030000000005</v>
       </c>
       <c r="C4" s="1">
-        <v>905.960000</v>
+        <v>905.96</v>
       </c>
       <c r="D4" s="1">
-        <v>-197.851000</v>
+        <v>-197.851</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>32414.382943</v>
+        <v>32414.382943000001</v>
       </c>
       <c r="G4" s="1">
-        <v>9.003995</v>
+        <v>9.0039949999999997</v>
       </c>
       <c r="H4" s="1">
-        <v>923.473000</v>
+        <v>923.47299999999996</v>
       </c>
       <c r="I4" s="1">
-        <v>-167.938000</v>
+        <v>-167.93799999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>32424.808318</v>
+        <v>32424.808317999999</v>
       </c>
       <c r="L4" s="1">
-        <v>9.006891</v>
+        <v>9.0068909999999995</v>
       </c>
       <c r="M4" s="1">
-        <v>946.148000</v>
+        <v>946.14800000000002</v>
       </c>
       <c r="N4" s="1">
-        <v>-120.207000</v>
+        <v>-120.20699999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>32435.250627</v>
+        <v>32435.250627000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>9.009792</v>
+        <v>9.0097919999999991</v>
       </c>
       <c r="R4" s="1">
-        <v>952.748000</v>
+        <v>952.74800000000005</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.601000</v>
+        <v>-104.601</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>32446.092145</v>
+        <v>32446.092144999999</v>
       </c>
       <c r="V4" s="1">
-        <v>9.012803</v>
+        <v>9.0128029999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>959.360000</v>
+        <v>959.36</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.702700</v>
+        <v>-90.702699999999993</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>32456.571655</v>
       </c>
       <c r="AA4" s="1">
-        <v>9.015714</v>
+        <v>9.0157139999999991</v>
       </c>
       <c r="AB4" s="1">
-        <v>966.657000</v>
+        <v>966.65700000000004</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.774300</v>
+        <v>-80.774299999999997</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>32467.141861</v>
       </c>
       <c r="AF4" s="1">
-        <v>9.018651</v>
+        <v>9.0186510000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>971.563000</v>
+        <v>971.56299999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.239400</v>
+        <v>-80.239400000000003</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>32477.946216</v>
       </c>
       <c r="AK4" s="1">
-        <v>9.021652</v>
+        <v>9.0216519999999996</v>
       </c>
       <c r="AL4" s="1">
-        <v>979.434000</v>
+        <v>979.43399999999997</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.821000</v>
+        <v>-87.820999999999998</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>32488.562596</v>
       </c>
       <c r="AP4" s="1">
-        <v>9.024601</v>
+        <v>9.0246010000000005</v>
       </c>
       <c r="AQ4" s="1">
-        <v>988.529000</v>
+        <v>988.529</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.652000</v>
+        <v>-102.652</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>32499.262814</v>
+        <v>32499.262814000002</v>
       </c>
       <c r="AU4" s="1">
-        <v>9.027573</v>
+        <v>9.0275730000000003</v>
       </c>
       <c r="AV4" s="1">
-        <v>999.782000</v>
+        <v>999.78200000000004</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.161000</v>
+        <v>-124.161</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>32509.717485</v>
+        <v>32509.717485000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>9.030477</v>
+        <v>9.0304769999999994</v>
       </c>
       <c r="BA4" s="1">
-        <v>1009.340000</v>
+        <v>1009.34</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.949000</v>
+        <v>-142.94900000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>32520.330847</v>
+        <v>32520.330847000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>9.033425</v>
+        <v>9.0334249999999994</v>
       </c>
       <c r="BF4" s="1">
-        <v>1054.240000</v>
+        <v>1054.24</v>
       </c>
       <c r="BG4" s="1">
-        <v>-228.218000</v>
+        <v>-228.21799999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>32530.927872</v>
       </c>
       <c r="BJ4" s="1">
-        <v>9.036369</v>
+        <v>9.0363690000000005</v>
       </c>
       <c r="BK4" s="1">
-        <v>1133.360000</v>
+        <v>1133.3599999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-365.417000</v>
+        <v>-365.41699999999997</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>32542.107700</v>
+        <v>32542.1077</v>
       </c>
       <c r="BO4" s="1">
-        <v>9.039474</v>
+        <v>9.0394740000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1264.750000</v>
+        <v>1264.75</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-577.980000</v>
+        <v>-577.98</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>32552.478548</v>
+        <v>32552.478547999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>9.042355</v>
+        <v>9.0423550000000006</v>
       </c>
       <c r="BU4" s="1">
-        <v>1412.930000</v>
+        <v>1412.93</v>
       </c>
       <c r="BV4" s="1">
-        <v>-805.727000</v>
+        <v>-805.72699999999998</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>32563.268054</v>
       </c>
       <c r="BY4" s="1">
-        <v>9.045352</v>
+        <v>9.0453519999999994</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1575.330000</v>
+        <v>1575.33</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1043.190000</v>
+        <v>-1043.19</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>32574.344710</v>
+        <v>32574.344710000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>9.048429</v>
+        <v>9.0484290000000005</v>
       </c>
       <c r="CE4" s="1">
-        <v>1986.030000</v>
+        <v>1986.03</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1599.500000</v>
+        <v>-1599.5</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>32404.321065</v>
       </c>
       <c r="B5" s="1">
-        <v>9.001200</v>
+        <v>9.0012000000000008</v>
       </c>
       <c r="C5" s="1">
-        <v>905.798000</v>
+        <v>905.798</v>
       </c>
       <c r="D5" s="1">
-        <v>-197.656000</v>
+        <v>-197.65600000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>32414.730602</v>
@@ -1267,647 +1683,647 @@
         <v>9.004092</v>
       </c>
       <c r="H5" s="1">
-        <v>923.502000</v>
+        <v>923.50199999999995</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.861000</v>
+        <v>-167.86099999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>32425.466545</v>
+        <v>32425.466544999999</v>
       </c>
       <c r="L5" s="1">
-        <v>9.007074</v>
+        <v>9.0070739999999994</v>
       </c>
       <c r="M5" s="1">
-        <v>945.972000</v>
+        <v>945.97199999999998</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.081000</v>
+        <v>-120.081</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>32435.909450</v>
+        <v>32435.909449999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>9.009975</v>
+        <v>9.0099750000000007</v>
       </c>
       <c r="R5" s="1">
-        <v>952.770000</v>
+        <v>952.77</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.653000</v>
+        <v>-104.65300000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>32446.476063</v>
+        <v>32446.476062999998</v>
       </c>
       <c r="V5" s="1">
-        <v>9.012910</v>
+        <v>9.0129099999999998</v>
       </c>
       <c r="W5" s="1">
-        <v>959.349000</v>
+        <v>959.34900000000005</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.632100</v>
+        <v>-90.632099999999994</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>32456.919316</v>
       </c>
       <c r="AA5" s="1">
-        <v>9.015811</v>
+        <v>9.0158109999999994</v>
       </c>
       <c r="AB5" s="1">
-        <v>966.649000</v>
+        <v>966.649</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.871100</v>
+        <v>-80.871099999999998</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>32467.489780</v>
+        <v>32467.48978</v>
       </c>
       <c r="AF5" s="1">
-        <v>9.018747</v>
+        <v>9.0187469999999994</v>
       </c>
       <c r="AG5" s="1">
-        <v>971.533000</v>
+        <v>971.53300000000002</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.221600</v>
+        <v>-80.221599999999995</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>32478.296427</v>
+        <v>32478.296427000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>9.021749</v>
+        <v>9.0217489999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>979.413000</v>
+        <v>979.41300000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.815700</v>
+        <v>-87.815700000000007</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>32489.170184</v>
+        <v>32489.170183999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>9.024769</v>
+        <v>9.0247689999999992</v>
       </c>
       <c r="AQ5" s="1">
-        <v>988.525000</v>
+        <v>988.52499999999998</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.665000</v>
+        <v>-102.66500000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>32499.676946</v>
       </c>
       <c r="AU5" s="1">
-        <v>9.027688</v>
+        <v>9.0276879999999995</v>
       </c>
       <c r="AV5" s="1">
-        <v>999.798000</v>
+        <v>999.798</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.185000</v>
+        <v>-124.185</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>32510.019027</v>
+        <v>32510.019026999998</v>
       </c>
       <c r="AZ5" s="1">
-        <v>9.030561</v>
+        <v>9.0305610000000005</v>
       </c>
       <c r="BA5" s="1">
-        <v>1009.340000</v>
+        <v>1009.34</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.939000</v>
+        <v>-142.93899999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>32520.639855</v>
+        <v>32520.639855000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>9.033511</v>
+        <v>9.0335110000000007</v>
       </c>
       <c r="BF5" s="1">
-        <v>1054.240000</v>
+        <v>1054.24</v>
       </c>
       <c r="BG5" s="1">
-        <v>-228.184000</v>
+        <v>-228.184</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>32531.304864</v>
+        <v>32531.304864000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>9.036474</v>
+        <v>9.0364740000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1133.370000</v>
+        <v>1133.3699999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-365.469000</v>
+        <v>-365.46899999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>32542.506022</v>
+        <v>32542.506022000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>9.039585</v>
+        <v>9.0395850000000006</v>
       </c>
       <c r="BP5" s="1">
-        <v>1264.730000</v>
+        <v>1264.73</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-577.984000</v>
+        <v>-577.98400000000004</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>32552.911557</v>
+        <v>32552.911556999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>9.042475</v>
+        <v>9.0424749999999996</v>
       </c>
       <c r="BU5" s="1">
-        <v>1412.930000</v>
+        <v>1412.93</v>
       </c>
       <c r="BV5" s="1">
-        <v>-805.797000</v>
+        <v>-805.79700000000003</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>32563.696070</v>
+        <v>32563.696070000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>9.045471</v>
+        <v>9.0454709999999992</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1575.210000</v>
+        <v>1575.21</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1043.080000</v>
+        <v>-1043.08</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>32574.882375</v>
+        <v>32574.882375000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>9.048578</v>
+        <v>9.0485779999999991</v>
       </c>
       <c r="CE5" s="1">
-        <v>1987.830000</v>
+        <v>1987.83</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1599.620000</v>
+        <v>-1599.62</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>32404.664296</v>
+        <v>32404.664295999999</v>
       </c>
       <c r="B6" s="1">
         <v>9.001296</v>
       </c>
       <c r="C6" s="1">
-        <v>906.018000</v>
+        <v>906.01800000000003</v>
       </c>
       <c r="D6" s="1">
-        <v>-197.631000</v>
+        <v>-197.631</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>32415.382841</v>
+        <v>32415.382840999999</v>
       </c>
       <c r="G6" s="1">
-        <v>9.004273</v>
+        <v>9.0042729999999995</v>
       </c>
       <c r="H6" s="1">
-        <v>923.567000</v>
+        <v>923.56700000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-167.883000</v>
+        <v>-167.88300000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>32425.851436</v>
+        <v>32425.851436000001</v>
       </c>
       <c r="L6" s="1">
-        <v>9.007181</v>
+        <v>9.0071809999999992</v>
       </c>
       <c r="M6" s="1">
-        <v>946.085000</v>
+        <v>946.08500000000004</v>
       </c>
       <c r="N6" s="1">
-        <v>-120.072000</v>
+        <v>-120.072</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>32436.295663</v>
+        <v>32436.295663000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>9.010082</v>
+        <v>9.0100820000000006</v>
       </c>
       <c r="R6" s="1">
-        <v>952.780000</v>
+        <v>952.78</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.662000</v>
+        <v>-104.66200000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>32446.819776</v>
       </c>
       <c r="V6" s="1">
-        <v>9.013005</v>
+        <v>9.0130049999999997</v>
       </c>
       <c r="W6" s="1">
-        <v>959.222000</v>
+        <v>959.22199999999998</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.567500</v>
+        <v>-90.567499999999995</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>32457.268497</v>
+        <v>32457.268497000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>9.015908</v>
+        <v>9.0159079999999996</v>
       </c>
       <c r="AB6" s="1">
-        <v>966.593000</v>
+        <v>966.59299999999996</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.809700</v>
+        <v>-80.809700000000007</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>32467.843237</v>
+        <v>32467.843237000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>9.018845</v>
+        <v>9.0188450000000007</v>
       </c>
       <c r="AG6" s="1">
-        <v>971.532000</v>
+        <v>971.53200000000004</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.219600</v>
+        <v>-80.2196</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>32478.722081</v>
       </c>
       <c r="AK6" s="1">
-        <v>9.021867</v>
+        <v>9.0218670000000003</v>
       </c>
       <c r="AL6" s="1">
-        <v>979.399000</v>
+        <v>979.399</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.803000</v>
+        <v>-87.802999999999997</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>32489.288729</v>
       </c>
       <c r="AP6" s="1">
-        <v>9.024802</v>
+        <v>9.0248019999999993</v>
       </c>
       <c r="AQ6" s="1">
-        <v>988.517000</v>
+        <v>988.51700000000005</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.667000</v>
+        <v>-102.667</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>32499.989417</v>
+        <v>32499.989417000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>9.027775</v>
+        <v>9.0277750000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>999.795000</v>
+        <v>999.79499999999996</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.169000</v>
+        <v>-124.169</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>32510.379644</v>
+        <v>32510.379644000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>9.030661</v>
+        <v>9.0306610000000003</v>
       </c>
       <c r="BA6" s="1">
-        <v>1009.330000</v>
+        <v>1009.33</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.945000</v>
+        <v>-142.94499999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>32521.004415</v>
+        <v>32521.004414999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>9.033612</v>
+        <v>9.0336119999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1054.260000</v>
+        <v>1054.26</v>
       </c>
       <c r="BG6" s="1">
-        <v>-228.209000</v>
+        <v>-228.209</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>32531.679313</v>
+        <v>32531.679313000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>9.036578</v>
+        <v>9.0365780000000004</v>
       </c>
       <c r="BK6" s="1">
-        <v>1133.380000</v>
+        <v>1133.3800000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-365.419000</v>
+        <v>-365.41899999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>32542.929601</v>
       </c>
       <c r="BO6" s="1">
-        <v>9.039703</v>
+        <v>9.0397029999999994</v>
       </c>
       <c r="BP6" s="1">
-        <v>1264.730000</v>
+        <v>1264.73</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-577.951000</v>
+        <v>-577.95100000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>32553.340099</v>
+        <v>32553.340099000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>9.042594</v>
+        <v>9.0425939999999994</v>
       </c>
       <c r="BU6" s="1">
-        <v>1412.800000</v>
+        <v>1412.8</v>
       </c>
       <c r="BV6" s="1">
-        <v>-805.847000</v>
+        <v>-805.84699999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>32564.118165</v>
       </c>
       <c r="BY6" s="1">
-        <v>9.045588</v>
+        <v>9.0455880000000004</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1575.210000</v>
+        <v>1575.21</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1043.240000</v>
+        <v>-1043.24</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>32575.424508</v>
       </c>
       <c r="CD6" s="1">
-        <v>9.048729</v>
+        <v>9.0487289999999998</v>
       </c>
       <c r="CE6" s="1">
-        <v>1986.510000</v>
+        <v>1986.51</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1598.640000</v>
+        <v>-1598.64</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>32405.286280</v>
+        <v>32405.28628</v>
       </c>
       <c r="B7" s="1">
-        <v>9.001468</v>
+        <v>9.0014679999999991</v>
       </c>
       <c r="C7" s="1">
-        <v>906.145000</v>
+        <v>906.14499999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>-197.781000</v>
+        <v>-197.78100000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>32415.764760</v>
+        <v>32415.764759999998</v>
       </c>
       <c r="G7" s="1">
-        <v>9.004379</v>
+        <v>9.0043790000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>923.404000</v>
+        <v>923.404</v>
       </c>
       <c r="I7" s="1">
-        <v>-167.374000</v>
+        <v>-167.374</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>32426.194150</v>
+        <v>32426.194149999999</v>
       </c>
       <c r="L7" s="1">
-        <v>9.007276</v>
+        <v>9.0072759999999992</v>
       </c>
       <c r="M7" s="1">
-        <v>946.088000</v>
+        <v>946.08799999999997</v>
       </c>
       <c r="N7" s="1">
-        <v>-120.144000</v>
+        <v>-120.14400000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>32436.643855</v>
+        <v>32436.643854999998</v>
       </c>
       <c r="Q7" s="1">
-        <v>9.010179</v>
+        <v>9.0101790000000008</v>
       </c>
       <c r="R7" s="1">
-        <v>952.746000</v>
+        <v>952.74599999999998</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.678000</v>
+        <v>-104.678</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>32447.163007</v>
+        <v>32447.163006999999</v>
       </c>
       <c r="V7" s="1">
-        <v>9.013101</v>
+        <v>9.0131010000000007</v>
       </c>
       <c r="W7" s="1">
-        <v>959.301000</v>
+        <v>959.30100000000004</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.600700</v>
+        <v>-90.600700000000003</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>32457.700513</v>
       </c>
       <c r="AA7" s="1">
-        <v>9.016028</v>
+        <v>9.0160280000000004</v>
       </c>
       <c r="AB7" s="1">
-        <v>966.487000</v>
+        <v>966.48699999999997</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.769700</v>
+        <v>-80.7697</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>32468.254884</v>
+        <v>32468.254884000002</v>
       </c>
       <c r="AF7" s="1">
-        <v>9.018960</v>
+        <v>9.0189599999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>971.537000</v>
+        <v>971.53700000000003</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.199300</v>
+        <v>-80.199299999999994</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>32478.995780</v>
+        <v>32478.995780000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>9.021943</v>
+        <v>9.0219430000000003</v>
       </c>
       <c r="AL7" s="1">
-        <v>979.434000</v>
+        <v>979.43399999999997</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.825600</v>
+        <v>-87.825599999999994</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>32489.625016</v>
+        <v>32489.625016000002</v>
       </c>
       <c r="AP7" s="1">
         <v>9.024896</v>
       </c>
       <c r="AQ7" s="1">
-        <v>988.524000</v>
+        <v>988.524</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.649000</v>
+        <v>-102.649</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>32500.356489</v>
+        <v>32500.356489000002</v>
       </c>
       <c r="AU7" s="1">
-        <v>9.027877</v>
+        <v>9.0278770000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>999.793000</v>
+        <v>999.79300000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.152000</v>
+        <v>-124.152</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>32510.738715</v>
@@ -1916,1949 +2332,1949 @@
         <v>9.030761</v>
       </c>
       <c r="BA7" s="1">
-        <v>1009.310000</v>
+        <v>1009.31</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.934000</v>
+        <v>-142.934</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>32521.364511</v>
       </c>
       <c r="BE7" s="1">
-        <v>9.033712</v>
+        <v>9.0337119999999995</v>
       </c>
       <c r="BF7" s="1">
-        <v>1054.230000</v>
+        <v>1054.23</v>
       </c>
       <c r="BG7" s="1">
-        <v>-228.179000</v>
+        <v>-228.179</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>32532.451615</v>
+        <v>32532.451615000002</v>
       </c>
       <c r="BJ7" s="1">
-        <v>9.036792</v>
+        <v>9.0367920000000002</v>
       </c>
       <c r="BK7" s="1">
-        <v>1133.350000</v>
+        <v>1133.3499999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-365.433000</v>
+        <v>-365.43299999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>32543.324416</v>
+        <v>32543.324415999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>9.039812</v>
+        <v>9.0398119999999995</v>
       </c>
       <c r="BP7" s="1">
-        <v>1264.760000</v>
+        <v>1264.76</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-577.976000</v>
+        <v>-577.976</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>32553.753764</v>
+        <v>32553.753764000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>9.042709</v>
+        <v>9.0427090000000003</v>
       </c>
       <c r="BU7" s="1">
-        <v>1412.800000</v>
+        <v>1412.8</v>
       </c>
       <c r="BV7" s="1">
-        <v>-805.944000</v>
+        <v>-805.94399999999996</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>32564.538276</v>
+        <v>32564.538275999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>9.045705</v>
+        <v>9.0457049999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1575.150000</v>
+        <v>1575.15</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1043.160000</v>
+        <v>-1043.1600000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>32576.268165</v>
+        <v>32576.268165000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>9.048963</v>
+        <v>9.0489630000000005</v>
       </c>
       <c r="CE7" s="1">
-        <v>1987.760000</v>
+        <v>1987.76</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1598.950000</v>
+        <v>-1598.95</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>32405.685558</v>
+        <v>32405.685558000001</v>
       </c>
       <c r="B8" s="1">
-        <v>9.001579</v>
+        <v>9.0015789999999996</v>
       </c>
       <c r="C8" s="1">
-        <v>906.043000</v>
+        <v>906.04300000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-197.651000</v>
+        <v>-197.65100000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>32416.109976</v>
       </c>
       <c r="G8" s="1">
-        <v>9.004475</v>
+        <v>9.0044749999999993</v>
       </c>
       <c r="H8" s="1">
-        <v>923.145000</v>
+        <v>923.14499999999998</v>
       </c>
       <c r="I8" s="1">
-        <v>-168.110000</v>
+        <v>-168.11</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>32426.540347</v>
+        <v>32426.540346999998</v>
       </c>
       <c r="L8" s="1">
-        <v>9.007372</v>
+        <v>9.0073720000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>946.029000</v>
+        <v>946.029</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.118000</v>
+        <v>-120.11799999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>32436.991086</v>
+        <v>32436.991086000002</v>
       </c>
       <c r="Q8" s="1">
         <v>9.010275</v>
       </c>
       <c r="R8" s="1">
-        <v>952.785000</v>
+        <v>952.78499999999997</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.630000</v>
+        <v>-104.63</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>32447.587098</v>
       </c>
       <c r="V8" s="1">
-        <v>9.013219</v>
+        <v>9.0132189999999994</v>
       </c>
       <c r="W8" s="1">
-        <v>959.304000</v>
+        <v>959.30399999999997</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.633500</v>
+        <v>-90.633499999999998</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>32457.982242</v>
+        <v>32457.982241999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>9.016106</v>
+        <v>9.0161060000000006</v>
       </c>
       <c r="AB8" s="1">
-        <v>966.606000</v>
+        <v>966.60599999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.814000</v>
+        <v>-80.813999999999993</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>32468.547059</v>
       </c>
       <c r="AF8" s="1">
-        <v>9.019041</v>
+        <v>9.0190409999999996</v>
       </c>
       <c r="AG8" s="1">
-        <v>971.539000</v>
+        <v>971.53899999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.232300</v>
+        <v>-80.232299999999995</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>32479.343490</v>
+        <v>32479.343489999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>9.022040</v>
+        <v>9.0220400000000005</v>
       </c>
       <c r="AL8" s="1">
-        <v>979.448000</v>
+        <v>979.44799999999998</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.800700</v>
+        <v>-87.800700000000006</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>32489.987095</v>
       </c>
       <c r="AP8" s="1">
-        <v>9.024996</v>
+        <v>9.0249959999999998</v>
       </c>
       <c r="AQ8" s="1">
-        <v>988.513000</v>
+        <v>988.51300000000003</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.670000</v>
+        <v>-102.67</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>32500.719529</v>
+        <v>32500.719529000002</v>
       </c>
       <c r="AU8" s="1">
-        <v>9.027978</v>
+        <v>9.0279779999999992</v>
       </c>
       <c r="AV8" s="1">
-        <v>999.814000</v>
+        <v>999.81399999999996</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.154000</v>
+        <v>-124.154</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>32511.461388</v>
       </c>
       <c r="AZ8" s="1">
-        <v>9.030961</v>
+        <v>9.0309609999999996</v>
       </c>
       <c r="BA8" s="1">
-        <v>1009.320000</v>
+        <v>1009.32</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.960000</v>
+        <v>-142.96</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>32522.083710</v>
+        <v>32522.083709999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>9.033912</v>
+        <v>9.0339120000000008</v>
       </c>
       <c r="BF8" s="1">
-        <v>1054.240000</v>
+        <v>1054.24</v>
       </c>
       <c r="BG8" s="1">
-        <v>-228.206000</v>
+        <v>-228.20599999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>32532.830030</v>
+        <v>32532.830030000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>9.036897</v>
+        <v>9.0368969999999997</v>
       </c>
       <c r="BK8" s="1">
-        <v>1133.370000</v>
+        <v>1133.3699999999999</v>
       </c>
       <c r="BL8" s="1">
-        <v>-365.435000</v>
+        <v>-365.435</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>32543.741058</v>
       </c>
       <c r="BO8" s="1">
-        <v>9.039928</v>
+        <v>9.0399279999999997</v>
       </c>
       <c r="BP8" s="1">
-        <v>1264.760000</v>
+        <v>1264.76</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-578.016000</v>
+        <v>-578.01599999999996</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>32554.183825</v>
       </c>
       <c r="BT8" s="1">
-        <v>9.042829</v>
+        <v>9.0428289999999993</v>
       </c>
       <c r="BU8" s="1">
-        <v>1412.720000</v>
+        <v>1412.72</v>
       </c>
       <c r="BV8" s="1">
-        <v>-805.852000</v>
+        <v>-805.85199999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>32565.295668</v>
+        <v>32565.295667999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>9.045915</v>
+        <v>9.0459150000000008</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1575.280000</v>
+        <v>1575.28</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1043.270000</v>
+        <v>-1043.27</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>32576.502772</v>
       </c>
       <c r="CD8" s="1">
-        <v>9.049029</v>
+        <v>9.0490290000000009</v>
       </c>
       <c r="CE8" s="1">
-        <v>1988.140000</v>
+        <v>1988.14</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1599.360000</v>
+        <v>-1599.36</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>32406.031302</v>
+        <v>32406.031301999999</v>
       </c>
       <c r="B9" s="1">
-        <v>9.001675</v>
+        <v>9.0016750000000005</v>
       </c>
       <c r="C9" s="1">
-        <v>905.940000</v>
+        <v>905.94</v>
       </c>
       <c r="D9" s="1">
-        <v>-197.983000</v>
+        <v>-197.983</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>32416.459689</v>
+        <v>32416.459688999999</v>
       </c>
       <c r="G9" s="1">
-        <v>9.004572</v>
+        <v>9.0045719999999996</v>
       </c>
       <c r="H9" s="1">
-        <v>923.212000</v>
+        <v>923.21199999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.672000</v>
+        <v>-167.672</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>32426.970909</v>
       </c>
       <c r="L9" s="1">
-        <v>9.007492</v>
+        <v>9.0074919999999992</v>
       </c>
       <c r="M9" s="1">
-        <v>945.961000</v>
+        <v>945.96100000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.249000</v>
+        <v>-120.249</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>32437.423597</v>
+        <v>32437.423597000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>9.010395</v>
+        <v>9.0103950000000008</v>
       </c>
       <c r="R9" s="1">
-        <v>952.777000</v>
+        <v>952.77700000000004</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.589000</v>
+        <v>-104.589</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>32447.865871</v>
+        <v>32447.865871000002</v>
       </c>
       <c r="V9" s="1">
-        <v>9.013296</v>
+        <v>9.0132960000000004</v>
       </c>
       <c r="W9" s="1">
-        <v>959.340000</v>
+        <v>959.34</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.570000</v>
+        <v>-90.57</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>32458.329937</v>
+        <v>32458.329936999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>9.016203</v>
+        <v>9.0162030000000009</v>
       </c>
       <c r="AB9" s="1">
-        <v>966.580000</v>
+        <v>966.58</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.778400</v>
+        <v>-80.778400000000005</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>32468.890260</v>
+        <v>32468.89026</v>
       </c>
       <c r="AF9" s="1">
-        <v>9.019136</v>
+        <v>9.0191359999999996</v>
       </c>
       <c r="AG9" s="1">
-        <v>971.553000</v>
+        <v>971.553</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.239200</v>
+        <v>-80.239199999999997</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>32479.692168</v>
+        <v>32479.692168000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>9.022137</v>
+        <v>9.0221370000000007</v>
       </c>
       <c r="AL9" s="1">
-        <v>979.411000</v>
+        <v>979.41099999999994</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.812000</v>
+        <v>-87.811999999999998</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>32490.715258</v>
       </c>
       <c r="AP9" s="1">
-        <v>9.025199</v>
+        <v>9.0251990000000006</v>
       </c>
       <c r="AQ9" s="1">
-        <v>988.539000</v>
+        <v>988.53899999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.640000</v>
+        <v>-102.64</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>32501.447193</v>
       </c>
       <c r="AU9" s="1">
-        <v>9.028180</v>
+        <v>9.0281800000000008</v>
       </c>
       <c r="AV9" s="1">
-        <v>999.807000</v>
+        <v>999.80700000000002</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.181000</v>
+        <v>-124.181</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>32511.836032</v>
+        <v>32511.836031999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>9.031066</v>
+        <v>9.0310659999999991</v>
       </c>
       <c r="BA9" s="1">
-        <v>1009.320000</v>
+        <v>1009.32</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.939000</v>
+        <v>-142.93899999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>32522.444830</v>
+        <v>32522.44483</v>
       </c>
       <c r="BE9" s="1">
-        <v>9.034012</v>
+        <v>9.0340120000000006</v>
       </c>
       <c r="BF9" s="1">
-        <v>1054.210000</v>
+        <v>1054.21</v>
       </c>
       <c r="BG9" s="1">
-        <v>-228.206000</v>
+        <v>-228.20599999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>32533.203549</v>
+        <v>32533.203549000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>9.037001</v>
+        <v>9.0370010000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1133.330000</v>
+        <v>1133.33</v>
       </c>
       <c r="BL9" s="1">
-        <v>-365.446000</v>
+        <v>-365.44600000000003</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>32544.464726</v>
+        <v>32544.464725999998</v>
       </c>
       <c r="BO9" s="1">
-        <v>9.040129</v>
+        <v>9.0401290000000003</v>
       </c>
       <c r="BP9" s="1">
-        <v>1264.700000</v>
+        <v>1264.7</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-578.005000</v>
+        <v>-578.005</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>32554.930273</v>
+        <v>32554.930273000002</v>
       </c>
       <c r="BT9" s="1">
-        <v>9.043036</v>
+        <v>9.0430360000000007</v>
       </c>
       <c r="BU9" s="1">
-        <v>1412.760000</v>
+        <v>1412.76</v>
       </c>
       <c r="BV9" s="1">
-        <v>-805.920000</v>
+        <v>-805.92</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>32565.414211</v>
+        <v>32565.414210999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>9.045948</v>
+        <v>9.0459479999999992</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1575.200000</v>
+        <v>1575.2</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1043.250000</v>
+        <v>-1043.25</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>32577.023111</v>
+        <v>32577.023110999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>9.049173</v>
+        <v>9.0491729999999997</v>
       </c>
       <c r="CE9" s="1">
-        <v>1986.770000</v>
+        <v>1986.77</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1598.240000</v>
+        <v>-1598.24</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>32406.438024</v>
+        <v>32406.438023999999</v>
       </c>
       <c r="B10" s="1">
-        <v>9.001788</v>
+        <v>9.0017879999999995</v>
       </c>
       <c r="C10" s="1">
-        <v>905.965000</v>
+        <v>905.96500000000003</v>
       </c>
       <c r="D10" s="1">
-        <v>-197.795000</v>
+        <v>-197.79499999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>32416.882774</v>
+        <v>32416.882774000002</v>
       </c>
       <c r="G10" s="1">
-        <v>9.004690</v>
+        <v>9.0046900000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>923.093000</v>
+        <v>923.09299999999996</v>
       </c>
       <c r="I10" s="1">
-        <v>-167.951000</v>
+        <v>-167.95099999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>32427.232297</v>
+        <v>32427.232296999999</v>
       </c>
       <c r="L10" s="1">
-        <v>9.007565</v>
+        <v>9.0075649999999996</v>
       </c>
       <c r="M10" s="1">
-        <v>946.056000</v>
+        <v>946.05600000000004</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.334000</v>
+        <v>-120.334</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>32437.705788</v>
+        <v>32437.705787999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>9.010474</v>
+        <v>9.0104740000000003</v>
       </c>
       <c r="R10" s="1">
-        <v>952.778000</v>
+        <v>952.77800000000002</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.620000</v>
+        <v>-104.62</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>32448.212046</v>
+        <v>32448.212046000001</v>
       </c>
       <c r="V10" s="1">
-        <v>9.013392</v>
+        <v>9.0133919999999996</v>
       </c>
       <c r="W10" s="1">
-        <v>959.305000</v>
+        <v>959.30499999999995</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.553100</v>
+        <v>-90.553100000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>32458.678626</v>
+        <v>32458.678626000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>9.016300</v>
+        <v>9.0162999999999993</v>
       </c>
       <c r="AB10" s="1">
-        <v>966.562000</v>
+        <v>966.56200000000001</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.819700</v>
+        <v>-80.819699999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>32469.233490</v>
+        <v>32469.233489999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>9.019232</v>
+        <v>9.0192320000000006</v>
       </c>
       <c r="AG10" s="1">
-        <v>971.544000</v>
+        <v>971.54399999999998</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.220200</v>
+        <v>-80.220200000000006</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>32480.390036</v>
+        <v>32480.390036000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>9.022331</v>
+        <v>9.0223309999999994</v>
       </c>
       <c r="AL10" s="1">
-        <v>979.415000</v>
+        <v>979.41499999999996</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.821900</v>
+        <v>-87.821899999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>32491.095653</v>
       </c>
       <c r="AP10" s="1">
-        <v>9.025304</v>
+        <v>9.0253040000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>988.529000</v>
+        <v>988.529</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.650000</v>
+        <v>-102.65</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>32501.840022</v>
       </c>
       <c r="AU10" s="1">
-        <v>9.028289</v>
+        <v>9.0282889999999991</v>
       </c>
       <c r="AV10" s="1">
-        <v>999.784000</v>
+        <v>999.78399999999999</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.203000</v>
+        <v>-124.203</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>32512.217785</v>
+        <v>32512.217785000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>9.031172</v>
+        <v>9.0311719999999998</v>
       </c>
       <c r="BA10" s="1">
-        <v>1009.350000</v>
+        <v>1009.35</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.944000</v>
+        <v>-142.94399999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>32523.116875</v>
       </c>
       <c r="BE10" s="1">
-        <v>9.034199</v>
+        <v>9.0341989999999992</v>
       </c>
       <c r="BF10" s="1">
-        <v>1054.270000</v>
+        <v>1054.27</v>
       </c>
       <c r="BG10" s="1">
-        <v>-228.196000</v>
+        <v>-228.196</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>32533.912301</v>
       </c>
       <c r="BJ10" s="1">
-        <v>9.037198</v>
+        <v>9.0371980000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1133.370000</v>
+        <v>1133.3699999999999</v>
       </c>
       <c r="BL10" s="1">
-        <v>-365.414000</v>
+        <v>-365.41399999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>32544.579791</v>
       </c>
       <c r="BO10" s="1">
-        <v>9.040161</v>
+        <v>9.0401609999999994</v>
       </c>
       <c r="BP10" s="1">
-        <v>1264.730000</v>
+        <v>1264.73</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-577.991000</v>
+        <v>-577.99099999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>32555.055265</v>
+        <v>32555.055264999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>9.043071</v>
+        <v>9.0430709999999994</v>
       </c>
       <c r="BU10" s="1">
-        <v>1412.690000</v>
+        <v>1412.69</v>
       </c>
       <c r="BV10" s="1">
-        <v>-805.930000</v>
+        <v>-805.93</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>32565.845236</v>
+        <v>32565.845236000001</v>
       </c>
       <c r="BY10" s="1">
         <v>9.046068</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1575.240000</v>
+        <v>1575.24</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1043.130000</v>
+        <v>-1043.1300000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>32577.542387</v>
+        <v>32577.542387000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>9.049317</v>
+        <v>9.0493170000000003</v>
       </c>
       <c r="CE10" s="1">
-        <v>1987.440000</v>
+        <v>1987.44</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1598.210000</v>
+        <v>-1598.21</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>32406.732118</v>
       </c>
       <c r="B11" s="1">
-        <v>9.001870</v>
+        <v>9.0018700000000003</v>
       </c>
       <c r="C11" s="1">
-        <v>906.002000</v>
+        <v>906.00199999999995</v>
       </c>
       <c r="D11" s="1">
-        <v>-197.836000</v>
+        <v>-197.83600000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>32417.160504</v>
+        <v>32417.160503999999</v>
       </c>
       <c r="G11" s="1">
-        <v>9.004767</v>
+        <v>9.0047669999999993</v>
       </c>
       <c r="H11" s="1">
-        <v>923.355000</v>
+        <v>923.35500000000002</v>
       </c>
       <c r="I11" s="1">
-        <v>-167.886000</v>
+        <v>-167.886</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>32427.579993</v>
+        <v>32427.579992999999</v>
       </c>
       <c r="L11" s="1">
-        <v>9.007661</v>
+        <v>9.0076610000000006</v>
       </c>
       <c r="M11" s="1">
-        <v>946.096000</v>
+        <v>946.096</v>
       </c>
       <c r="N11" s="1">
-        <v>-120.283000</v>
+        <v>-120.283</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>32438.046044</v>
+        <v>32438.046043999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>9.010568</v>
+        <v>9.0105679999999992</v>
       </c>
       <c r="R11" s="1">
-        <v>952.796000</v>
+        <v>952.79600000000005</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.607000</v>
+        <v>-104.607</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>32448.554286</v>
+        <v>32448.554285999999</v>
       </c>
       <c r="V11" s="1">
-        <v>9.013487</v>
+        <v>9.0134869999999996</v>
       </c>
       <c r="W11" s="1">
-        <v>959.342000</v>
+        <v>959.34199999999998</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.552500</v>
+        <v>-90.552499999999995</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>32459.374015</v>
+        <v>32459.374015000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>9.016493</v>
+        <v>9.0164930000000005</v>
       </c>
       <c r="AB11" s="1">
-        <v>966.579000</v>
+        <v>966.57899999999995</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.747200</v>
+        <v>-80.747200000000007</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>32469.918962</v>
       </c>
       <c r="AF11" s="1">
-        <v>9.019422</v>
+        <v>9.0194220000000005</v>
       </c>
       <c r="AG11" s="1">
-        <v>971.545000</v>
+        <v>971.54499999999996</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.215600</v>
+        <v>-80.215599999999995</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>32480.735251</v>
+        <v>32480.735250999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>9.022426</v>
+        <v>9.0224259999999994</v>
       </c>
       <c r="AL11" s="1">
-        <v>979.432000</v>
+        <v>979.43200000000002</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.803500</v>
+        <v>-87.8035</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>32491.484549</v>
+        <v>32491.484549000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>9.025412</v>
+        <v>9.0254119999999993</v>
       </c>
       <c r="AQ11" s="1">
-        <v>988.520000</v>
+        <v>988.52</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.677000</v>
+        <v>-102.67700000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>32502.206571</v>
+        <v>32502.206570999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>9.028391</v>
+        <v>9.0283909999999992</v>
       </c>
       <c r="AV11" s="1">
-        <v>999.782000</v>
+        <v>999.78200000000004</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.178000</v>
+        <v>-124.178</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>32512.882456</v>
+        <v>32512.882455999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>9.031356</v>
+        <v>9.0313560000000006</v>
       </c>
       <c r="BA11" s="1">
-        <v>1009.330000</v>
+        <v>1009.33</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.927000</v>
+        <v>-142.92699999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>32523.558314</v>
+        <v>32523.558314000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>9.034322</v>
+        <v>9.0343219999999995</v>
       </c>
       <c r="BF11" s="1">
-        <v>1054.220000</v>
+        <v>1054.22</v>
       </c>
       <c r="BG11" s="1">
-        <v>-228.199000</v>
+        <v>-228.19900000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>32534.352253</v>
+        <v>32534.352253000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>9.037320</v>
+        <v>9.0373199999999994</v>
       </c>
       <c r="BK11" s="1">
-        <v>1133.360000</v>
+        <v>1133.3599999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-365.438000</v>
+        <v>-365.43799999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>32544.985486</v>
+        <v>32544.985486000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>9.040274</v>
+        <v>9.0402740000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1264.790000</v>
+        <v>1264.79</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-578.043000</v>
+        <v>-578.04300000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>32555.485829</v>
+        <v>32555.485829000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>9.043191</v>
+        <v>9.0431910000000002</v>
       </c>
       <c r="BU11" s="1">
-        <v>1412.680000</v>
+        <v>1412.68</v>
       </c>
       <c r="BV11" s="1">
-        <v>-805.891000</v>
+        <v>-805.89099999999996</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>32566.270802</v>
+        <v>32566.270801999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>9.046186</v>
+        <v>9.0461860000000005</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1575.190000</v>
+        <v>1575.19</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1043.220000</v>
+        <v>-1043.22</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>32578.094930</v>
+        <v>32578.094929999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>9.049471</v>
+        <v>9.0494710000000005</v>
       </c>
       <c r="CE11" s="1">
-        <v>1987.890000</v>
+        <v>1987.89</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1599.500000</v>
+        <v>-1599.5</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>32407.073893</v>
+        <v>32407.073893000001</v>
       </c>
       <c r="B12" s="1">
-        <v>9.001965</v>
+        <v>9.0019650000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>905.912000</v>
+        <v>905.91200000000003</v>
       </c>
       <c r="D12" s="1">
-        <v>-197.680000</v>
+        <v>-197.68</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>32417.507735</v>
+        <v>32417.507734999999</v>
       </c>
       <c r="G12" s="1">
-        <v>9.004863</v>
+        <v>9.0048630000000003</v>
       </c>
       <c r="H12" s="1">
-        <v>923.065000</v>
+        <v>923.06500000000005</v>
       </c>
       <c r="I12" s="1">
-        <v>-167.764000</v>
+        <v>-167.76400000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>32427.926849</v>
+        <v>32427.926848999999</v>
       </c>
       <c r="L12" s="1">
-        <v>9.007757</v>
+        <v>9.0077569999999998</v>
       </c>
       <c r="M12" s="1">
-        <v>946.120000</v>
+        <v>946.12</v>
       </c>
       <c r="N12" s="1">
-        <v>-120.019000</v>
+        <v>-120.01900000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>32438.398235</v>
+        <v>32438.398235000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>9.010666</v>
+        <v>9.0106660000000005</v>
       </c>
       <c r="R12" s="1">
-        <v>952.758000</v>
+        <v>952.75800000000004</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.634000</v>
+        <v>-104.634</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>32449.240253</v>
       </c>
       <c r="V12" s="1">
-        <v>9.013678</v>
+        <v>9.0136780000000005</v>
       </c>
       <c r="W12" s="1">
-        <v>959.369000</v>
+        <v>959.36900000000003</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.620300</v>
+        <v>-90.6203</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>32459.724029</v>
+        <v>32459.724029000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>9.016590</v>
+        <v>9.0165900000000008</v>
       </c>
       <c r="AB12" s="1">
-        <v>966.561000</v>
+        <v>966.56100000000004</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.836000</v>
+        <v>-80.835999999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>32470.264674</v>
+        <v>32470.264673999998</v>
       </c>
       <c r="AF12" s="1">
-        <v>9.019518</v>
+        <v>9.0195179999999997</v>
       </c>
       <c r="AG12" s="1">
-        <v>971.579000</v>
+        <v>971.57899999999995</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.213200</v>
+        <v>-80.213200000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>32481.085892</v>
+        <v>32481.085891999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>9.022524</v>
+        <v>9.0225240000000007</v>
       </c>
       <c r="AL12" s="1">
-        <v>979.422000</v>
+        <v>979.42200000000003</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.795800</v>
+        <v>-87.7958</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>32492.148692</v>
+        <v>32492.148691999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>9.025597</v>
+        <v>9.0255969999999994</v>
       </c>
       <c r="AQ12" s="1">
-        <v>988.522000</v>
+        <v>988.52200000000005</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.655000</v>
+        <v>-102.655</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>32502.876630</v>
+        <v>32502.876629999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>9.028577</v>
+        <v>9.0285770000000003</v>
       </c>
       <c r="AV12" s="1">
-        <v>999.796000</v>
+        <v>999.79600000000005</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.171000</v>
+        <v>-124.17100000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>32513.301548</v>
+        <v>32513.301547999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>9.031473</v>
+        <v>9.0314730000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1009.350000</v>
+        <v>1009.35</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.939000</v>
+        <v>-142.93899999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>32523.914473</v>
+        <v>32523.914473000001</v>
       </c>
       <c r="BE12" s="1">
         <v>9.034421</v>
       </c>
       <c r="BF12" s="1">
-        <v>1054.230000</v>
+        <v>1054.23</v>
       </c>
       <c r="BG12" s="1">
-        <v>-228.210000</v>
+        <v>-228.21</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>32534.757981</v>
+        <v>32534.757980999999</v>
       </c>
       <c r="BJ12" s="1">
         <v>9.037433</v>
       </c>
       <c r="BK12" s="1">
-        <v>1133.350000</v>
+        <v>1133.3499999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-365.456000</v>
+        <v>-365.45600000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>32545.383291</v>
+        <v>32545.383290999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>9.040384</v>
+        <v>9.0403839999999995</v>
       </c>
       <c r="BP12" s="1">
-        <v>1264.740000</v>
+        <v>1264.74</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-578.031000</v>
+        <v>-578.03099999999995</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>32556.114224</v>
+        <v>32556.114224000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>9.043365</v>
+        <v>9.0433649999999997</v>
       </c>
       <c r="BU12" s="1">
-        <v>1412.630000</v>
+        <v>1412.63</v>
       </c>
       <c r="BV12" s="1">
-        <v>-805.918000</v>
+        <v>-805.91800000000001</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>32566.688931</v>
+        <v>32566.688931000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>9.046302</v>
+        <v>9.0463020000000007</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1575.210000</v>
+        <v>1575.21</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1043.240000</v>
+        <v>-1043.24</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>32578.620722</v>
       </c>
       <c r="CD12" s="1">
-        <v>9.049617</v>
+        <v>9.0496169999999996</v>
       </c>
       <c r="CE12" s="1">
-        <v>1987.090000</v>
+        <v>1987.09</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1598.500000</v>
+        <v>-1598.5</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>32407.415605</v>
+        <v>32407.415604999998</v>
       </c>
       <c r="B13" s="1">
-        <v>9.002060</v>
+        <v>9.0020600000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>905.941000</v>
+        <v>905.94100000000003</v>
       </c>
       <c r="D13" s="1">
-        <v>-197.835000</v>
+        <v>-197.83500000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>32417.850936</v>
+        <v>32417.850935999999</v>
       </c>
       <c r="G13" s="1">
-        <v>9.004959</v>
+        <v>9.0049589999999995</v>
       </c>
       <c r="H13" s="1">
-        <v>922.950000</v>
+        <v>922.95</v>
       </c>
       <c r="I13" s="1">
-        <v>-167.398000</v>
+        <v>-167.398</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>32428.621591</v>
+        <v>32428.621590999999</v>
       </c>
       <c r="L13" s="1">
-        <v>9.007950</v>
+        <v>9.0079499999999992</v>
       </c>
       <c r="M13" s="1">
-        <v>946.182000</v>
+        <v>946.18200000000002</v>
       </c>
       <c r="N13" s="1">
-        <v>-120.139000</v>
+        <v>-120.139</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>32439.095083</v>
       </c>
       <c r="Q13" s="1">
-        <v>9.010860</v>
+        <v>9.0108599999999992</v>
       </c>
       <c r="R13" s="1">
-        <v>952.755000</v>
+        <v>952.755</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.661000</v>
+        <v>-104.661</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>32449.584476</v>
       </c>
       <c r="V13" s="1">
-        <v>9.013773</v>
+        <v>9.0137730000000005</v>
       </c>
       <c r="W13" s="1">
-        <v>959.304000</v>
+        <v>959.30399999999997</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.572900</v>
+        <v>-90.572900000000004</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>32460.074402</v>
+        <v>32460.074401999998</v>
       </c>
       <c r="AA13" s="1">
-        <v>9.016687</v>
+        <v>9.0166869999999992</v>
       </c>
       <c r="AB13" s="1">
-        <v>966.588000</v>
+        <v>966.58799999999997</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.759500</v>
+        <v>-80.759500000000003</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>32470.608403</v>
+        <v>32470.608402999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>9.019613</v>
+        <v>9.0196129999999997</v>
       </c>
       <c r="AG13" s="1">
-        <v>971.573000</v>
+        <v>971.57299999999998</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.291200</v>
+        <v>-80.291200000000003</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>32481.741603</v>
+        <v>32481.741602999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>9.022706</v>
+        <v>9.0227059999999994</v>
       </c>
       <c r="AL13" s="1">
-        <v>979.441000</v>
+        <v>979.44100000000003</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.799500</v>
+        <v>-87.799499999999995</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>32492.562820</v>
+        <v>32492.562819999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>9.025712</v>
+        <v>9.0257120000000004</v>
       </c>
       <c r="AQ13" s="1">
-        <v>988.516000</v>
+        <v>988.51599999999996</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.675000</v>
+        <v>-102.675</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>32503.331461</v>
+        <v>32503.331461000002</v>
       </c>
       <c r="AU13" s="1">
-        <v>9.028703</v>
+        <v>9.0287030000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>999.787000</v>
+        <v>999.78700000000003</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.187000</v>
+        <v>-124.187</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>32513.677047</v>
+        <v>32513.677047000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>9.031577</v>
+        <v>9.0315770000000004</v>
       </c>
       <c r="BA13" s="1">
-        <v>1009.340000</v>
+        <v>1009.34</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.951000</v>
+        <v>-142.95099999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>32524.275033</v>
+        <v>32524.275033000002</v>
       </c>
       <c r="BE13" s="1">
-        <v>9.034521</v>
+        <v>9.0345209999999998</v>
       </c>
       <c r="BF13" s="1">
-        <v>1054.250000</v>
+        <v>1054.25</v>
       </c>
       <c r="BG13" s="1">
-        <v>-228.207000</v>
+        <v>-228.20699999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>32535.131467</v>
+        <v>32535.131466999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>9.037537</v>
+        <v>9.0375370000000004</v>
       </c>
       <c r="BK13" s="1">
-        <v>1133.380000</v>
+        <v>1133.3800000000001</v>
       </c>
       <c r="BL13" s="1">
-        <v>-365.424000</v>
+        <v>-365.42399999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>32545.805373</v>
+        <v>32545.805372999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>9.040501</v>
+        <v>9.0405010000000008</v>
       </c>
       <c r="BP13" s="1">
-        <v>1264.710000</v>
+        <v>1264.71</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-578.012000</v>
+        <v>-578.01199999999994</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>32556.315627</v>
       </c>
       <c r="BT13" s="1">
-        <v>9.043421</v>
+        <v>9.0434210000000004</v>
       </c>
       <c r="BU13" s="1">
-        <v>1412.550000</v>
+        <v>1412.55</v>
       </c>
       <c r="BV13" s="1">
-        <v>-805.962000</v>
+        <v>-805.96199999999999</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>32567.117009</v>
+        <v>32567.117009000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>9.046421</v>
+        <v>9.0464210000000005</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1575.210000</v>
+        <v>1575.21</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1043.160000</v>
+        <v>-1043.1600000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>32579.140000</v>
+        <v>32579.14</v>
       </c>
       <c r="CD13" s="1">
-        <v>9.049761</v>
+        <v>9.0497610000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>1986.790000</v>
+        <v>1986.79</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1600.310000</v>
+        <v>-1600.31</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>32408.098628</v>
       </c>
       <c r="B14" s="1">
-        <v>9.002250</v>
+        <v>9.0022500000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>905.904000</v>
+        <v>905.904</v>
       </c>
       <c r="D14" s="1">
-        <v>-197.861000</v>
+        <v>-197.86099999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>32418.538885</v>
+        <v>32418.538885000002</v>
       </c>
       <c r="G14" s="1">
-        <v>9.005150</v>
+        <v>9.0051500000000004</v>
       </c>
       <c r="H14" s="1">
-        <v>923.328000</v>
+        <v>923.32799999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>-167.577000</v>
+        <v>-167.577</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>32428.965783</v>
       </c>
       <c r="L14" s="1">
-        <v>9.008046</v>
+        <v>9.0080460000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>946.072000</v>
+        <v>946.072</v>
       </c>
       <c r="N14" s="1">
-        <v>-120.119000</v>
+        <v>-120.119</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>32439.441787</v>
       </c>
       <c r="Q14" s="1">
-        <v>9.010956</v>
+        <v>9.0109560000000002</v>
       </c>
       <c r="R14" s="1">
-        <v>952.733000</v>
+        <v>952.73299999999995</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.642000</v>
+        <v>-104.642</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>32449.927740</v>
+        <v>32449.927739999999</v>
       </c>
       <c r="V14" s="1">
-        <v>9.013869</v>
+        <v>9.0138689999999997</v>
       </c>
       <c r="W14" s="1">
-        <v>959.394000</v>
+        <v>959.39400000000001</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.666500</v>
+        <v>-90.666499999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>32460.727134</v>
+        <v>32460.727134000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>9.016869</v>
+        <v>9.0168689999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>966.561000</v>
+        <v>966.56100000000004</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.793600</v>
+        <v>-80.793599999999998</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>32471.265599</v>
+        <v>32471.265598999998</v>
       </c>
       <c r="AF14" s="1">
-        <v>9.019796</v>
+        <v>9.0197959999999995</v>
       </c>
       <c r="AG14" s="1">
-        <v>971.566000</v>
+        <v>971.56600000000003</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.231900</v>
+        <v>-80.231899999999996</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>32482.130961</v>
+        <v>32482.130960999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>9.022814</v>
+        <v>9.0228140000000003</v>
       </c>
       <c r="AL14" s="1">
-        <v>979.449000</v>
+        <v>979.44899999999996</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.830700</v>
+        <v>-87.830699999999993</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>32492.945236</v>
       </c>
       <c r="AP14" s="1">
-        <v>9.025818</v>
+        <v>9.0258179999999992</v>
       </c>
       <c r="AQ14" s="1">
-        <v>988.524000</v>
+        <v>988.524</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.668000</v>
+        <v>-102.66800000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>32503.694532</v>
+        <v>32503.694532000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>9.028804</v>
+        <v>9.0288039999999992</v>
       </c>
       <c r="AV14" s="1">
-        <v>999.805000</v>
+        <v>999.80499999999995</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.170000</v>
+        <v>-124.17</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>32514.053976</v>
+        <v>32514.053975999999</v>
       </c>
       <c r="AZ14" s="1">
         <v>9.031682</v>
       </c>
       <c r="BA14" s="1">
-        <v>1009.320000</v>
+        <v>1009.32</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.939000</v>
+        <v>-142.93899999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>32524.700602</v>
+        <v>32524.700602000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>9.034639</v>
+        <v>9.0346390000000003</v>
       </c>
       <c r="BF14" s="1">
-        <v>1054.250000</v>
+        <v>1054.25</v>
       </c>
       <c r="BG14" s="1">
-        <v>-228.178000</v>
+        <v>-228.178</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>32535.554556</v>
+        <v>32535.554555999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>9.037654</v>
+        <v>9.0376539999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1133.370000</v>
+        <v>1133.3699999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-365.417000</v>
+        <v>-365.41699999999997</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>32546.199440</v>
+        <v>32546.19944</v>
       </c>
       <c r="BO14" s="1">
-        <v>9.040611</v>
+        <v>9.0406110000000002</v>
       </c>
       <c r="BP14" s="1">
-        <v>1264.710000</v>
+        <v>1264.71</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-577.987000</v>
+        <v>-577.98699999999997</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>32556.731902</v>
       </c>
       <c r="BT14" s="1">
-        <v>9.043537</v>
+        <v>9.0435370000000006</v>
       </c>
       <c r="BU14" s="1">
-        <v>1412.530000</v>
+        <v>1412.53</v>
       </c>
       <c r="BV14" s="1">
-        <v>-805.980000</v>
+        <v>-805.98</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>32567.533150</v>
+        <v>32567.533149999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>9.046537</v>
+        <v>9.0465370000000007</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1575.280000</v>
+        <v>1575.28</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1043.190000</v>
+        <v>-1043.19</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>32579.679186</v>
+        <v>32579.679186000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>9.049911</v>
+        <v>9.0499109999999998</v>
       </c>
       <c r="CE14" s="1">
-        <v>1987.440000</v>
+        <v>1987.44</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1598.350000</v>
+        <v>-1598.35</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>32408.442322</v>
+        <v>32408.442321999999</v>
       </c>
       <c r="B15" s="1">
         <v>9.002345</v>
       </c>
       <c r="C15" s="1">
-        <v>905.987000</v>
+        <v>905.98699999999997</v>
       </c>
       <c r="D15" s="1">
-        <v>-197.795000</v>
+        <v>-197.79499999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>32418.882645</v>
+        <v>32418.882645000002</v>
       </c>
       <c r="G15" s="1">
-        <v>9.005245</v>
+        <v>9.0052450000000004</v>
       </c>
       <c r="H15" s="1">
-        <v>923.569000</v>
+        <v>923.56899999999996</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.637000</v>
+        <v>-167.637</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>32429.304056</v>
+        <v>32429.304056000001</v>
       </c>
       <c r="L15" s="1">
-        <v>9.008140</v>
+        <v>9.0081399999999991</v>
       </c>
       <c r="M15" s="1">
-        <v>946.068000</v>
+        <v>946.06799999999998</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.079000</v>
+        <v>-120.07899999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>32440.101465</v>
@@ -3867,996 +4283,996 @@
         <v>9.011139</v>
       </c>
       <c r="R15" s="1">
-        <v>952.782000</v>
+        <v>952.78200000000004</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.617000</v>
+        <v>-104.617</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>32450.578486</v>
+        <v>32450.578485999999</v>
       </c>
       <c r="V15" s="1">
-        <v>9.014050</v>
+        <v>9.0140499999999992</v>
       </c>
       <c r="W15" s="1">
-        <v>959.295000</v>
+        <v>959.29499999999996</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.540000</v>
+        <v>-90.54</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>32461.115499</v>
       </c>
       <c r="AA15" s="1">
-        <v>9.016977</v>
+        <v>9.0169770000000007</v>
       </c>
       <c r="AB15" s="1">
-        <v>966.603000</v>
+        <v>966.60299999999995</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.731600</v>
+        <v>-80.7316</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>32471.637599</v>
+        <v>32471.637599000002</v>
       </c>
       <c r="AF15" s="1">
-        <v>9.019899</v>
+        <v>9.0198990000000006</v>
       </c>
       <c r="AG15" s="1">
-        <v>971.514000</v>
+        <v>971.51400000000001</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.195700</v>
+        <v>-80.195700000000002</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>32482.478162</v>
+        <v>32482.478161999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>9.022911</v>
+        <v>9.0229110000000006</v>
       </c>
       <c r="AL15" s="1">
-        <v>979.426000</v>
+        <v>979.42600000000004</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.801000</v>
+        <v>-87.801000000000002</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>32493.305330</v>
+        <v>32493.305329999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>9.025918</v>
+        <v>9.0259180000000008</v>
       </c>
       <c r="AQ15" s="1">
-        <v>988.516000</v>
+        <v>988.51599999999996</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.659000</v>
+        <v>-102.65900000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>32504.065541</v>
       </c>
       <c r="AU15" s="1">
-        <v>9.028907</v>
+        <v>9.0289070000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>999.787000</v>
+        <v>999.78700000000003</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.184000</v>
+        <v>-124.184</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>32514.473094</v>
+        <v>32514.473094000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>9.031798</v>
+        <v>9.0317980000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>1009.330000</v>
+        <v>1009.33</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.955000</v>
+        <v>-142.95500000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>32524.999688</v>
       </c>
       <c r="BE15" s="1">
-        <v>9.034722</v>
+        <v>9.0347220000000004</v>
       </c>
       <c r="BF15" s="1">
-        <v>1054.240000</v>
+        <v>1054.24</v>
       </c>
       <c r="BG15" s="1">
-        <v>-228.191000</v>
+        <v>-228.191</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>32535.908730</v>
+        <v>32535.908729999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>9.037752</v>
+        <v>9.0377519999999993</v>
       </c>
       <c r="BK15" s="1">
-        <v>1133.320000</v>
+        <v>1133.32</v>
       </c>
       <c r="BL15" s="1">
-        <v>-365.420000</v>
+        <v>-365.42</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>32546.621788</v>
       </c>
       <c r="BO15" s="1">
-        <v>9.040728</v>
+        <v>9.0407279999999997</v>
       </c>
       <c r="BP15" s="1">
-        <v>1264.710000</v>
+        <v>1264.71</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-578.026000</v>
+        <v>-578.02599999999995</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>32557.145407</v>
       </c>
       <c r="BT15" s="1">
-        <v>9.043652</v>
+        <v>9.0436519999999998</v>
       </c>
       <c r="BU15" s="1">
-        <v>1412.560000</v>
+        <v>1412.56</v>
       </c>
       <c r="BV15" s="1">
-        <v>-805.896000</v>
+        <v>-805.89599999999996</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>32567.982032</v>
       </c>
       <c r="BY15" s="1">
-        <v>9.046662</v>
+        <v>9.0466619999999995</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1575.290000</v>
+        <v>1575.29</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1043.240000</v>
+        <v>-1043.24</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>32580.220289</v>
+        <v>32580.220289000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>9.050061</v>
+        <v>9.0500609999999995</v>
       </c>
       <c r="CE15" s="1">
-        <v>1985.860000</v>
+        <v>1985.86</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1599.500000</v>
+        <v>-1599.5</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>32408.782112</v>
+        <v>32408.782112000001</v>
       </c>
       <c r="B16" s="1">
-        <v>9.002439</v>
+        <v>9.0024390000000007</v>
       </c>
       <c r="C16" s="1">
-        <v>906.002000</v>
+        <v>906.00199999999995</v>
       </c>
       <c r="D16" s="1">
-        <v>-197.881000</v>
+        <v>-197.881</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>32419.226340</v>
+        <v>32419.226340000001</v>
       </c>
       <c r="G16" s="1">
-        <v>9.005341</v>
+        <v>9.0053409999999996</v>
       </c>
       <c r="H16" s="1">
-        <v>923.209000</v>
+        <v>923.20899999999995</v>
       </c>
       <c r="I16" s="1">
-        <v>-168.007000</v>
+        <v>-168.00700000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>32429.968726</v>
+        <v>32429.968725999999</v>
       </c>
       <c r="L16" s="1">
-        <v>9.008325</v>
+        <v>9.0083249999999992</v>
       </c>
       <c r="M16" s="1">
-        <v>946.141000</v>
+        <v>946.14099999999996</v>
       </c>
       <c r="N16" s="1">
-        <v>-120.316000</v>
+        <v>-120.316</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>32440.490355</v>
+        <v>32440.490355000002</v>
       </c>
       <c r="Q16" s="1">
-        <v>9.011247</v>
+        <v>9.0112469999999991</v>
       </c>
       <c r="R16" s="1">
-        <v>952.833000</v>
+        <v>952.83299999999997</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.625000</v>
+        <v>-104.625</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>32450.957912</v>
+        <v>32450.957912000002</v>
       </c>
       <c r="V16" s="1">
-        <v>9.014155</v>
+        <v>9.0141550000000006</v>
       </c>
       <c r="W16" s="1">
-        <v>959.314000</v>
+        <v>959.31399999999996</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.658000</v>
+        <v>-90.658000000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>32461.467132</v>
+        <v>32461.467132000002</v>
       </c>
       <c r="AA16" s="1">
-        <v>9.017074</v>
+        <v>9.0170739999999991</v>
       </c>
       <c r="AB16" s="1">
-        <v>966.610000</v>
+        <v>966.61</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.760700</v>
+        <v>-80.7607</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>32471.997695</v>
+        <v>32471.997694999998</v>
       </c>
       <c r="AF16" s="1">
-        <v>9.019999</v>
+        <v>9.0199990000000003</v>
       </c>
       <c r="AG16" s="1">
-        <v>971.554000</v>
+        <v>971.55399999999997</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.244200</v>
+        <v>-80.244200000000006</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>32482.828336</v>
+        <v>32482.828335999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>9.023008</v>
+        <v>9.0230080000000008</v>
       </c>
       <c r="AL16" s="1">
-        <v>979.424000</v>
+        <v>979.42399999999998</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.813600</v>
+        <v>-87.813599999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>32493.723457</v>
       </c>
       <c r="AP16" s="1">
-        <v>9.026034</v>
+        <v>9.0260339999999992</v>
       </c>
       <c r="AQ16" s="1">
-        <v>988.537000</v>
+        <v>988.53700000000003</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.663000</v>
+        <v>-102.663</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>32504.490116</v>
+        <v>32504.490116000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>9.029025</v>
+        <v>9.0290250000000007</v>
       </c>
       <c r="AV16" s="1">
-        <v>999.805000</v>
+        <v>999.80499999999995</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.172000</v>
+        <v>-124.172</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>32514.772710</v>
+        <v>32514.772710000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>9.031881</v>
+        <v>9.0318810000000003</v>
       </c>
       <c r="BA16" s="1">
-        <v>1009.320000</v>
+        <v>1009.32</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.955000</v>
+        <v>-142.95500000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>32525.359784</v>
       </c>
       <c r="BE16" s="1">
-        <v>9.034822</v>
+        <v>9.0348220000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1054.230000</v>
+        <v>1054.23</v>
       </c>
       <c r="BG16" s="1">
-        <v>-228.178000</v>
+        <v>-228.178</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>32536.285659</v>
+        <v>32536.285659000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>9.037857</v>
+        <v>9.0378570000000007</v>
       </c>
       <c r="BK16" s="1">
-        <v>1133.380000</v>
+        <v>1133.3800000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-365.450000</v>
+        <v>-365.45</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>32547.020110</v>
+        <v>32547.020110000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>9.040839</v>
+        <v>9.0408390000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1264.710000</v>
+        <v>1264.71</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-578.031000</v>
+        <v>-578.03099999999995</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>32557.585357</v>
       </c>
       <c r="BT16" s="1">
-        <v>9.043774</v>
+        <v>9.0437740000000009</v>
       </c>
       <c r="BU16" s="1">
-        <v>1412.410000</v>
+        <v>1412.41</v>
       </c>
       <c r="BV16" s="1">
-        <v>-805.885000</v>
+        <v>-805.88499999999999</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>32568.402607</v>
       </c>
       <c r="BY16" s="1">
-        <v>9.046779</v>
+        <v>9.0467790000000008</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1575.300000</v>
+        <v>1575.3</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1043.210000</v>
+        <v>-1043.21</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>32580.760959</v>
+        <v>32580.760958999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>9.050211</v>
+        <v>9.0502109999999991</v>
       </c>
       <c r="CE16" s="1">
-        <v>1987.550000</v>
+        <v>1987.55</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1599.910000</v>
+        <v>-1599.91</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>32409.434853</v>
+        <v>32409.434852999999</v>
       </c>
       <c r="B17" s="1">
-        <v>9.002621</v>
+        <v>9.0026209999999995</v>
       </c>
       <c r="C17" s="1">
-        <v>905.920000</v>
+        <v>905.92</v>
       </c>
       <c r="D17" s="1">
-        <v>-197.859000</v>
+        <v>-197.85900000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>32419.867669</v>
+        <v>32419.867668999999</v>
       </c>
       <c r="G17" s="1">
-        <v>9.005519</v>
+        <v>9.0055189999999996</v>
       </c>
       <c r="H17" s="1">
-        <v>923.114000</v>
+        <v>923.11400000000003</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.593000</v>
+        <v>-167.59299999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>32430.351605</v>
       </c>
       <c r="L17" s="1">
-        <v>9.008431</v>
+        <v>9.0084309999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>946.128000</v>
+        <v>946.12800000000004</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.919000</v>
+        <v>-119.919</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>32440.836071</v>
+        <v>32440.836071000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>9.011343</v>
+        <v>9.0113430000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>952.773000</v>
+        <v>952.77300000000002</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.645000</v>
+        <v>-104.645</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>32451.302123</v>
+        <v>32451.302123000001</v>
       </c>
       <c r="V17" s="1">
-        <v>9.014251</v>
+        <v>9.0142509999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>959.319000</v>
+        <v>959.31899999999996</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.643100</v>
+        <v>-90.643100000000004</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>32461.814828</v>
+        <v>32461.814827999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>9.017171</v>
+        <v>9.0171709999999994</v>
       </c>
       <c r="AB17" s="1">
-        <v>966.551000</v>
+        <v>966.55100000000004</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.813200</v>
+        <v>-80.813199999999995</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>32472.629101</v>
+        <v>32472.629100999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>9.020175</v>
+        <v>9.0201750000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>971.518000</v>
+        <v>971.51800000000003</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.206000</v>
+        <v>-80.206000000000003</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>32483.257904</v>
+        <v>32483.257903999998</v>
       </c>
       <c r="AK17" s="1">
-        <v>9.023127</v>
+        <v>9.0231270000000006</v>
       </c>
       <c r="AL17" s="1">
-        <v>979.406000</v>
+        <v>979.40599999999995</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.794100</v>
+        <v>-87.7941</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>32494.025035</v>
+        <v>32494.025034999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>9.026118</v>
+        <v>9.0261180000000003</v>
       </c>
       <c r="AQ17" s="1">
-        <v>988.520000</v>
+        <v>988.52</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.654000</v>
+        <v>-102.654</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>32504.788211</v>
+        <v>32504.788210999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>9.029108</v>
+        <v>9.0291080000000008</v>
       </c>
       <c r="AV17" s="1">
-        <v>999.776000</v>
+        <v>999.77599999999995</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.178000</v>
+        <v>-124.178</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>32515.132278</v>
+        <v>32515.132278000001</v>
       </c>
       <c r="AZ17" s="1">
         <v>9.031981</v>
       </c>
       <c r="BA17" s="1">
-        <v>1009.350000</v>
+        <v>1009.35</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.972000</v>
+        <v>-142.97200000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>32525.722361</v>
       </c>
       <c r="BE17" s="1">
-        <v>9.034923</v>
+        <v>9.0349229999999991</v>
       </c>
       <c r="BF17" s="1">
-        <v>1054.240000</v>
+        <v>1054.24</v>
       </c>
       <c r="BG17" s="1">
-        <v>-228.207000</v>
+        <v>-228.20699999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>32536.659188</v>
+        <v>32536.659188000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>9.037961</v>
+        <v>9.0379609999999992</v>
       </c>
       <c r="BK17" s="1">
-        <v>1133.360000</v>
+        <v>1133.3599999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-365.409000</v>
+        <v>-365.40899999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>32547.440714</v>
       </c>
       <c r="BO17" s="1">
-        <v>9.040956</v>
+        <v>9.0409559999999995</v>
       </c>
       <c r="BP17" s="1">
-        <v>1264.780000</v>
+        <v>1264.78</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-578.035000</v>
+        <v>-578.03499999999997</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>32558.010962</v>
       </c>
       <c r="BT17" s="1">
-        <v>9.043892</v>
+        <v>9.0438919999999996</v>
       </c>
       <c r="BU17" s="1">
-        <v>1412.420000</v>
+        <v>1412.42</v>
       </c>
       <c r="BV17" s="1">
-        <v>-805.944000</v>
+        <v>-805.94399999999996</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>32568.826691</v>
+        <v>32568.826690999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>9.046896</v>
+        <v>9.0468960000000003</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1575.320000</v>
+        <v>1575.32</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1043.230000</v>
+        <v>-1043.23</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>32581.301070</v>
+        <v>32581.301070000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>9.050361</v>
+        <v>9.0503610000000005</v>
       </c>
       <c r="CE17" s="1">
-        <v>1987.080000</v>
+        <v>1987.08</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1597.930000</v>
+        <v>-1597.93</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>32409.809794</v>
+        <v>32409.809794000001</v>
       </c>
       <c r="B18" s="1">
-        <v>9.002725</v>
+        <v>9.0027249999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>905.973000</v>
+        <v>905.97299999999996</v>
       </c>
       <c r="D18" s="1">
-        <v>-197.771000</v>
+        <v>-197.77099999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>32420.263474</v>
+        <v>32420.263473999999</v>
       </c>
       <c r="G18" s="1">
-        <v>9.005629</v>
+        <v>9.0056290000000008</v>
       </c>
       <c r="H18" s="1">
-        <v>923.163000</v>
+        <v>923.16300000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.624000</v>
+        <v>-167.624</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>32430.694837</v>
+        <v>32430.694836999999</v>
       </c>
       <c r="L18" s="1">
-        <v>9.008526</v>
+        <v>9.0085259999999998</v>
       </c>
       <c r="M18" s="1">
-        <v>946.088000</v>
+        <v>946.08799999999997</v>
       </c>
       <c r="N18" s="1">
-        <v>-120.056000</v>
+        <v>-120.056</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>32441.186747</v>
       </c>
       <c r="Q18" s="1">
-        <v>9.011441</v>
+        <v>9.0114409999999996</v>
       </c>
       <c r="R18" s="1">
-        <v>952.750000</v>
+        <v>952.75</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.618000</v>
+        <v>-104.61799999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>32451.645851</v>
+        <v>32451.645851000001</v>
       </c>
       <c r="V18" s="1">
-        <v>9.014346</v>
+        <v>9.0143459999999997</v>
       </c>
       <c r="W18" s="1">
-        <v>959.305000</v>
+        <v>959.30499999999995</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.631100</v>
+        <v>-90.631100000000004</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>32462.232491</v>
+        <v>32462.232490999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>9.017287</v>
+        <v>9.0172869999999996</v>
       </c>
       <c r="AB18" s="1">
-        <v>966.544000</v>
+        <v>966.54399999999998</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.823300</v>
+        <v>-80.823300000000003</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>32473.019487</v>
+        <v>32473.019487000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>9.020283</v>
+        <v>9.0202829999999992</v>
       </c>
       <c r="AG18" s="1">
-        <v>971.565000</v>
+        <v>971.56500000000005</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.232100</v>
+        <v>-80.232100000000003</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>32483.539632</v>
       </c>
       <c r="AK18" s="1">
-        <v>9.023205</v>
+        <v>9.0232050000000008</v>
       </c>
       <c r="AL18" s="1">
-        <v>979.425000</v>
+        <v>979.42499999999995</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.847400</v>
+        <v>-87.847399999999993</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>32494.383137</v>
+        <v>32494.383137000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>9.026218</v>
+        <v>9.0262180000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>988.510000</v>
+        <v>988.51</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.665000</v>
+        <v>-102.66500000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>32505.154285</v>
+        <v>32505.154285000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>9.029210</v>
+        <v>9.0292100000000008</v>
       </c>
       <c r="AV18" s="1">
-        <v>999.816000</v>
+        <v>999.81600000000003</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.191000</v>
+        <v>-124.191</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>32515.491382</v>
       </c>
       <c r="AZ18" s="1">
-        <v>9.032081</v>
+        <v>9.0320809999999998</v>
       </c>
       <c r="BA18" s="1">
-        <v>1009.330000</v>
+        <v>1009.33</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.953000</v>
+        <v>-142.953</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>32526.445032</v>
       </c>
       <c r="BE18" s="1">
-        <v>9.035124</v>
+        <v>9.0351239999999997</v>
       </c>
       <c r="BF18" s="1">
-        <v>1054.230000</v>
+        <v>1054.23</v>
       </c>
       <c r="BG18" s="1">
-        <v>-228.188000</v>
+        <v>-228.18799999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>32537.411577</v>
+        <v>32537.411576999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>9.038170</v>
+        <v>9.0381699999999991</v>
       </c>
       <c r="BK18" s="1">
-        <v>1133.360000</v>
+        <v>1133.3599999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-365.451000</v>
+        <v>-365.45100000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>32547.836987</v>
+        <v>32547.836986999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>9.041066</v>
+        <v>9.0410660000000007</v>
       </c>
       <c r="BP18" s="1">
-        <v>1264.710000</v>
+        <v>1264.71</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-578.023000</v>
+        <v>-578.02300000000002</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>32558.422640</v>
+        <v>32558.422640000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>9.044006</v>
+        <v>9.0440059999999995</v>
       </c>
       <c r="BU18" s="1">
-        <v>1412.410000</v>
+        <v>1412.41</v>
       </c>
       <c r="BV18" s="1">
-        <v>-805.833000</v>
+        <v>-805.83299999999997</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>32569.273582</v>
+        <v>32569.273582000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>9.047020</v>
+        <v>9.0470199999999998</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1575.190000</v>
+        <v>1575.19</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1043.180000</v>
+        <v>-1043.18</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>32582.149261</v>
+        <v>32582.149260999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>9.050597</v>
+        <v>9.0505969999999998</v>
       </c>
       <c r="CE18" s="1">
-        <v>1988.030000</v>
+        <v>1988.03</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1600.150000</v>
+        <v>-1600.15</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>32410.149590</v>
+        <v>32410.149590000001</v>
       </c>
       <c r="B19" s="1">
-        <v>9.002819</v>
+        <v>9.0028190000000006</v>
       </c>
       <c r="C19" s="1">
-        <v>905.894000</v>
+        <v>905.89400000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-197.683000</v>
+        <v>-197.68299999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>32420.610674</v>
@@ -4865,632 +5281,632 @@
         <v>9.005725</v>
       </c>
       <c r="H19" s="1">
-        <v>923.304000</v>
+        <v>923.30399999999997</v>
       </c>
       <c r="I19" s="1">
-        <v>-167.881000</v>
+        <v>-167.881</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>32431.040084</v>
       </c>
       <c r="L19" s="1">
-        <v>9.008622</v>
+        <v>9.0086220000000008</v>
       </c>
       <c r="M19" s="1">
-        <v>946.076000</v>
+        <v>946.07600000000002</v>
       </c>
       <c r="N19" s="1">
-        <v>-120.180000</v>
+        <v>-120.18</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>32441.613302</v>
+        <v>32441.613302000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>9.011559</v>
+        <v>9.0115590000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>952.759000</v>
+        <v>952.75900000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.598000</v>
+        <v>-104.598</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>32452.066458</v>
+        <v>32452.066458000001</v>
       </c>
       <c r="V19" s="1">
-        <v>9.014463</v>
+        <v>9.0144629999999992</v>
       </c>
       <c r="W19" s="1">
-        <v>959.342000</v>
+        <v>959.34199999999998</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.650100</v>
+        <v>-90.650099999999995</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>32462.522620</v>
+        <v>32462.52262</v>
       </c>
       <c r="AA19" s="1">
-        <v>9.017367</v>
+        <v>9.0173670000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>966.666000</v>
+        <v>966.66600000000005</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.910900</v>
+        <v>-80.910899999999998</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>32473.368667</v>
+        <v>32473.368666999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>9.020380</v>
+        <v>9.0203799999999994</v>
       </c>
       <c r="AG19" s="1">
-        <v>971.549000</v>
+        <v>971.54899999999998</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.207400</v>
+        <v>-80.207400000000007</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>32483.884847</v>
+        <v>32483.884847000001</v>
       </c>
       <c r="AK19" s="1">
         <v>9.023301</v>
       </c>
       <c r="AL19" s="1">
-        <v>979.450000</v>
+        <v>979.45</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.834300</v>
+        <v>-87.834299999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>32494.747200</v>
+        <v>32494.747200000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>9.026319</v>
+        <v>9.0263190000000009</v>
       </c>
       <c r="AQ19" s="1">
-        <v>988.523000</v>
+        <v>988.52300000000002</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.649000</v>
+        <v>-102.649</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>32505.770327</v>
+        <v>32505.770326999998</v>
       </c>
       <c r="AU19" s="1">
-        <v>9.029381</v>
+        <v>9.0293810000000008</v>
       </c>
       <c r="AV19" s="1">
-        <v>999.791000</v>
+        <v>999.79100000000005</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.164000</v>
+        <v>-124.164</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>32516.208132</v>
       </c>
       <c r="AZ19" s="1">
-        <v>9.032280</v>
+        <v>9.0322800000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1009.330000</v>
+        <v>1009.33</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.969000</v>
+        <v>-142.96899999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>32526.805651</v>
+        <v>32526.805650999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>9.035224</v>
+        <v>9.0352239999999995</v>
       </c>
       <c r="BF19" s="1">
-        <v>1054.240000</v>
+        <v>1054.24</v>
       </c>
       <c r="BG19" s="1">
-        <v>-228.197000</v>
+        <v>-228.197</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>32537.789032</v>
+        <v>32537.789032000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>9.038275</v>
+        <v>9.0382750000000005</v>
       </c>
       <c r="BK19" s="1">
-        <v>1133.340000</v>
+        <v>1133.3399999999999</v>
       </c>
       <c r="BL19" s="1">
-        <v>-365.440000</v>
+        <v>-365.44</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>32548.258121</v>
+        <v>32548.258120999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>9.041183</v>
+        <v>9.0411830000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1264.690000</v>
+        <v>1264.69</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-578.056000</v>
+        <v>-578.05600000000004</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>32559.163131</v>
+        <v>32559.163131000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>9.044212</v>
+        <v>9.0442119999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1412.320000</v>
+        <v>1412.32</v>
       </c>
       <c r="BV19" s="1">
-        <v>-805.835000</v>
+        <v>-805.83500000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>32570.009149</v>
+        <v>32570.009149000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>9.047225</v>
+        <v>9.0472249999999992</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1575.100000</v>
+        <v>1575.1</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1043.160000</v>
+        <v>-1043.1600000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>32582.378380</v>
+        <v>32582.378379999998</v>
       </c>
       <c r="CD19" s="1">
-        <v>9.050661</v>
+        <v>9.0506609999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>1987.820000</v>
+        <v>1987.82</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1599.810000</v>
+        <v>-1599.81</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>32410.492816</v>
+        <v>32410.492816000002</v>
       </c>
       <c r="B20" s="1">
-        <v>9.002915</v>
+        <v>9.0029149999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>905.935000</v>
+        <v>905.93499999999995</v>
       </c>
       <c r="D20" s="1">
-        <v>-197.737000</v>
+        <v>-197.73699999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>32420.953906</v>
+        <v>32420.953905999999</v>
       </c>
       <c r="G20" s="1">
-        <v>9.005821</v>
+        <v>9.0058209999999992</v>
       </c>
       <c r="H20" s="1">
-        <v>923.328000</v>
+        <v>923.32799999999997</v>
       </c>
       <c r="I20" s="1">
-        <v>-167.548000</v>
+        <v>-167.548</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>32431.472106</v>
+        <v>32431.472106000001</v>
       </c>
       <c r="L20" s="1">
-        <v>9.008742</v>
+        <v>9.0087419999999998</v>
       </c>
       <c r="M20" s="1">
-        <v>946.175000</v>
+        <v>946.17499999999995</v>
       </c>
       <c r="N20" s="1">
-        <v>-120.156000</v>
+        <v>-120.15600000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>32441.883622</v>
+        <v>32441.883622000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>9.011634</v>
+        <v>9.0116340000000008</v>
       </c>
       <c r="R20" s="1">
-        <v>952.737000</v>
+        <v>952.73699999999997</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.591000</v>
+        <v>-104.59099999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>32452.358638</v>
+        <v>32452.358638000002</v>
       </c>
       <c r="V20" s="1">
-        <v>9.014544</v>
+        <v>9.0145440000000008</v>
       </c>
       <c r="W20" s="1">
-        <v>959.309000</v>
+        <v>959.30899999999997</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.677400</v>
+        <v>-90.677400000000006</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>32462.872300</v>
+        <v>32462.872299999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>9.017465</v>
+        <v>9.0174649999999996</v>
       </c>
       <c r="AB20" s="1">
-        <v>966.542000</v>
+        <v>966.54200000000003</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.821300</v>
+        <v>-80.821299999999994</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>32473.708924</v>
+        <v>32473.708923999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>9.020475</v>
+        <v>9.0204749999999994</v>
       </c>
       <c r="AG20" s="1">
-        <v>971.508000</v>
+        <v>971.50800000000004</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.207800</v>
+        <v>-80.207800000000006</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>32484.237009</v>
       </c>
       <c r="AK20" s="1">
-        <v>9.023399</v>
+        <v>9.0233989999999995</v>
       </c>
       <c r="AL20" s="1">
-        <v>979.439000</v>
+        <v>979.43899999999996</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.830100</v>
+        <v>-87.830100000000002</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>32495.465904</v>
+        <v>32495.465904000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>9.026518</v>
+        <v>9.0265179999999994</v>
       </c>
       <c r="AQ20" s="1">
-        <v>988.522000</v>
+        <v>988.52200000000005</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.640000</v>
+        <v>-102.64</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>32505.883378</v>
+        <v>32505.883377999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>9.029412</v>
+        <v>9.0294120000000007</v>
       </c>
       <c r="AV20" s="1">
-        <v>999.802000</v>
+        <v>999.80200000000002</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.168000</v>
+        <v>-124.16800000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>32516.569684</v>
+        <v>32516.569683999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>9.032380</v>
+        <v>9.0323799999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1009.330000</v>
+        <v>1009.33</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.961000</v>
+        <v>-142.96100000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>32527.169686</v>
+        <v>32527.169686000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>9.035325</v>
+        <v>9.0353250000000003</v>
       </c>
       <c r="BF20" s="1">
-        <v>1054.230000</v>
+        <v>1054.23</v>
       </c>
       <c r="BG20" s="1">
-        <v>-228.200000</v>
+        <v>-228.2</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>32538.162024</v>
+        <v>32538.162024000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>9.038378</v>
+        <v>9.0383779999999998</v>
       </c>
       <c r="BK20" s="1">
-        <v>1133.340000</v>
+        <v>1133.3399999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-365.392000</v>
+        <v>-365.392</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>32548.973322</v>
+        <v>32548.973322000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>9.041381</v>
+        <v>9.0413809999999994</v>
       </c>
       <c r="BP20" s="1">
-        <v>1264.680000</v>
+        <v>1264.68</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-578.026000</v>
+        <v>-578.02599999999995</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>32559.281677</v>
+        <v>32559.281676999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>9.044245</v>
+        <v>9.0442450000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1412.320000</v>
+        <v>1412.32</v>
       </c>
       <c r="BV20" s="1">
-        <v>-805.733000</v>
+        <v>-805.73299999999995</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>32570.137116</v>
+        <v>32570.137116000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>9.047260</v>
+        <v>9.0472599999999996</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1575.260000</v>
+        <v>1575.26</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1043.110000</v>
+        <v>-1043.1099999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>32582.899212</v>
       </c>
       <c r="CD20" s="1">
-        <v>9.050805</v>
+        <v>9.0508050000000004</v>
       </c>
       <c r="CE20" s="1">
-        <v>1987.330000</v>
+        <v>1987.33</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1598.560000</v>
+        <v>-1598.56</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>32410.914383</v>
+        <v>32410.914382999999</v>
       </c>
       <c r="B21" s="1">
-        <v>9.003032</v>
+        <v>9.0030319999999993</v>
       </c>
       <c r="C21" s="1">
-        <v>905.928000</v>
+        <v>905.928</v>
       </c>
       <c r="D21" s="1">
-        <v>-197.734000</v>
+        <v>-197.73400000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>32421.388911</v>
+        <v>32421.388910999998</v>
       </c>
       <c r="G21" s="1">
         <v>9.005941</v>
       </c>
       <c r="H21" s="1">
-        <v>923.318000</v>
+        <v>923.31799999999998</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.630000</v>
+        <v>-167.63</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>32431.749828</v>
       </c>
       <c r="L21" s="1">
-        <v>9.008819</v>
+        <v>9.0088190000000008</v>
       </c>
       <c r="M21" s="1">
-        <v>945.931000</v>
+        <v>945.93100000000004</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.088000</v>
+        <v>-120.08799999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>32442.232311</v>
       </c>
       <c r="Q21" s="1">
-        <v>9.011731</v>
+        <v>9.0117309999999993</v>
       </c>
       <c r="R21" s="1">
-        <v>952.776000</v>
+        <v>952.77599999999995</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.588000</v>
+        <v>-104.58799999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>32452.698856</v>
+        <v>32452.698855999999</v>
       </c>
       <c r="V21" s="1">
-        <v>9.014639</v>
+        <v>9.0146390000000007</v>
       </c>
       <c r="W21" s="1">
-        <v>959.236000</v>
+        <v>959.23599999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.700900</v>
+        <v>-90.700900000000004</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>32463.221022</v>
+        <v>32463.221022000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>9.017561</v>
+        <v>9.0175610000000006</v>
       </c>
       <c r="AB21" s="1">
-        <v>966.531000</v>
+        <v>966.53099999999995</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.832000</v>
+        <v>-80.831999999999994</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>32474.395853</v>
+        <v>32474.395853000002</v>
       </c>
       <c r="AF21" s="1">
-        <v>9.020666</v>
+        <v>9.0206660000000003</v>
       </c>
       <c r="AG21" s="1">
-        <v>971.504000</v>
+        <v>971.50400000000002</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.200600</v>
+        <v>-80.200599999999994</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>32484.933357</v>
+        <v>32484.933357000002</v>
       </c>
       <c r="AK21" s="1">
         <v>9.023593</v>
       </c>
       <c r="AL21" s="1">
-        <v>979.409000</v>
+        <v>979.40899999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.828400</v>
+        <v>-87.828400000000002</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>32495.829009</v>
+        <v>32495.829009000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>9.026619</v>
+        <v>9.0266190000000002</v>
       </c>
       <c r="AQ21" s="1">
-        <v>988.510000</v>
+        <v>988.51</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.650000</v>
+        <v>-102.65</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>32506.280209</v>
@@ -5499,1313 +5915,1313 @@
         <v>9.029522</v>
       </c>
       <c r="AV21" s="1">
-        <v>999.789000</v>
+        <v>999.78899999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.187000</v>
+        <v>-124.187</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>32516.927331</v>
+        <v>32516.927330999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>9.032480</v>
+        <v>9.0324799999999996</v>
       </c>
       <c r="BA21" s="1">
-        <v>1009.320000</v>
+        <v>1009.32</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.949000</v>
+        <v>-142.94900000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>32527.840277</v>
+        <v>32527.840276999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>9.035511</v>
+        <v>9.0355109999999996</v>
       </c>
       <c r="BF21" s="1">
-        <v>1054.230000</v>
+        <v>1054.23</v>
       </c>
       <c r="BG21" s="1">
-        <v>-228.215000</v>
+        <v>-228.215</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>32538.992823</v>
       </c>
       <c r="BJ21" s="1">
-        <v>9.038609</v>
+        <v>9.0386089999999992</v>
       </c>
       <c r="BK21" s="1">
-        <v>1133.340000</v>
+        <v>1133.3399999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-365.418000</v>
+        <v>-365.41800000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>32549.093352</v>
       </c>
       <c r="BO21" s="1">
-        <v>9.041415</v>
+        <v>9.0414150000000006</v>
       </c>
       <c r="BP21" s="1">
-        <v>1264.750000</v>
+        <v>1264.75</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-578.015000</v>
+        <v>-578.01499999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>32559.720634</v>
+        <v>32559.720634000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>9.044367</v>
+        <v>9.0443669999999994</v>
       </c>
       <c r="BU21" s="1">
-        <v>1412.270000</v>
+        <v>1412.27</v>
       </c>
       <c r="BV21" s="1">
-        <v>-805.830000</v>
+        <v>-805.83</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>32570.562698</v>
+        <v>32570.562698000002</v>
       </c>
       <c r="BY21" s="1">
-        <v>9.047379</v>
+        <v>9.0473789999999994</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1575.200000</v>
+        <v>1575.2</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1043.230000</v>
+        <v>-1043.23</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>32583.415019</v>
       </c>
       <c r="CD21" s="1">
-        <v>9.050949</v>
+        <v>9.0509489999999992</v>
       </c>
       <c r="CE21" s="1">
-        <v>1986.000000</v>
+        <v>1986</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1599.280000</v>
+        <v>-1599.28</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>32411.194129</v>
       </c>
       <c r="B22" s="1">
-        <v>9.003109</v>
+        <v>9.0031090000000003</v>
       </c>
       <c r="C22" s="1">
-        <v>905.927000</v>
+        <v>905.92700000000002</v>
       </c>
       <c r="D22" s="1">
-        <v>-197.635000</v>
+        <v>-197.63499999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>32421.668145</v>
       </c>
       <c r="G22" s="1">
-        <v>9.006019</v>
+        <v>9.0060190000000002</v>
       </c>
       <c r="H22" s="1">
-        <v>923.347000</v>
+        <v>923.34699999999998</v>
       </c>
       <c r="I22" s="1">
-        <v>-167.674000</v>
+        <v>-167.67400000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>32432.097558</v>
+        <v>32432.097558000001</v>
       </c>
       <c r="L22" s="1">
-        <v>9.008916</v>
+        <v>9.0089159999999993</v>
       </c>
       <c r="M22" s="1">
-        <v>946.145000</v>
+        <v>946.14499999999998</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.965000</v>
+        <v>-119.965</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>32442.582453</v>
+        <v>32442.582452999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>9.011828</v>
+        <v>9.0118279999999995</v>
       </c>
       <c r="R22" s="1">
-        <v>952.764000</v>
+        <v>952.76400000000001</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.661000</v>
+        <v>-104.661</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>32453.044073</v>
+        <v>32453.044073000001</v>
       </c>
       <c r="V22" s="1">
-        <v>9.014734</v>
+        <v>9.0147340000000007</v>
       </c>
       <c r="W22" s="1">
-        <v>959.287000</v>
+        <v>959.28700000000003</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.622900</v>
+        <v>-90.622900000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>32463.920345</v>
+        <v>32463.920344999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>9.017756</v>
+        <v>9.0177560000000003</v>
       </c>
       <c r="AB22" s="1">
-        <v>966.615000</v>
+        <v>966.61500000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.888000</v>
+        <v>-80.888000000000005</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>32474.738588</v>
       </c>
       <c r="AF22" s="1">
-        <v>9.020761</v>
+        <v>9.0207610000000003</v>
       </c>
       <c r="AG22" s="1">
-        <v>971.514000</v>
+        <v>971.51400000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.229100</v>
+        <v>-80.229100000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>32485.280594</v>
       </c>
       <c r="AK22" s="1">
-        <v>9.023689</v>
+        <v>9.0236889999999992</v>
       </c>
       <c r="AL22" s="1">
-        <v>979.418000</v>
+        <v>979.41800000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.815500</v>
+        <v>-87.8155</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>32496.188079</v>
       </c>
       <c r="AP22" s="1">
-        <v>9.026719</v>
+        <v>9.0267189999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>988.507000</v>
+        <v>988.50699999999995</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.647000</v>
+        <v>-102.64700000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>32506.957746</v>
       </c>
       <c r="AU22" s="1">
-        <v>9.029710</v>
+        <v>9.0297099999999997</v>
       </c>
       <c r="AV22" s="1">
-        <v>999.783000</v>
+        <v>999.78300000000002</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.178000</v>
+        <v>-124.178</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>32517.590946</v>
       </c>
       <c r="AZ22" s="1">
-        <v>9.032664</v>
+        <v>9.0326640000000005</v>
       </c>
       <c r="BA22" s="1">
-        <v>1009.330000</v>
+        <v>1009.33</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.953000</v>
+        <v>-142.953</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>32528.279732</v>
+        <v>32528.279731999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>9.035633</v>
+        <v>9.0356330000000007</v>
       </c>
       <c r="BF22" s="1">
-        <v>1054.240000</v>
+        <v>1054.24</v>
       </c>
       <c r="BG22" s="1">
-        <v>-228.192000</v>
+        <v>-228.19200000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>32539.287943</v>
+        <v>32539.287942999999</v>
       </c>
       <c r="BJ22" s="1">
         <v>9.038691</v>
       </c>
       <c r="BK22" s="1">
-        <v>1133.360000</v>
+        <v>1133.3599999999999</v>
       </c>
       <c r="BL22" s="1">
-        <v>-365.436000</v>
+        <v>-365.43599999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>32549.503109</v>
+        <v>32549.503109000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>9.041529</v>
+        <v>9.0415290000000006</v>
       </c>
       <c r="BP22" s="1">
-        <v>1264.680000</v>
+        <v>1264.68</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-578.028000</v>
+        <v>-578.02800000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>32560.131569</v>
+        <v>32560.131569000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>9.044481</v>
+        <v>9.0444809999999993</v>
       </c>
       <c r="BU22" s="1">
-        <v>1412.300000</v>
+        <v>1412.3</v>
       </c>
       <c r="BV22" s="1">
-        <v>-805.729000</v>
+        <v>-805.72900000000004</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>32570.976347</v>
       </c>
       <c r="BY22" s="1">
-        <v>9.047493</v>
+        <v>9.0474929999999993</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1575.190000</v>
+        <v>1575.19</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1043.270000</v>
+        <v>-1043.27</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>32583.935324</v>
+        <v>32583.935323999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>9.051093</v>
+        <v>9.0510929999999998</v>
       </c>
       <c r="CE22" s="1">
-        <v>1986.850000</v>
+        <v>1986.85</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1600.340000</v>
+        <v>-1600.34</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>32411.535872</v>
       </c>
       <c r="B23" s="1">
-        <v>9.003204</v>
+        <v>9.0032040000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>905.974000</v>
+        <v>905.97400000000005</v>
       </c>
       <c r="D23" s="1">
-        <v>-197.691000</v>
+        <v>-197.691</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>32422.029234</v>
+        <v>32422.029234000001</v>
       </c>
       <c r="G23" s="1">
         <v>9.006119</v>
       </c>
       <c r="H23" s="1">
-        <v>923.376000</v>
+        <v>923.37599999999998</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.843000</v>
+        <v>-167.84299999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>32432.441746</v>
       </c>
       <c r="L23" s="1">
-        <v>9.009012</v>
+        <v>9.0090120000000002</v>
       </c>
       <c r="M23" s="1">
-        <v>946.181000</v>
+        <v>946.18100000000004</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.330000</v>
+        <v>-120.33</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>32443.279867</v>
+        <v>32443.279867000001</v>
       </c>
       <c r="Q23" s="1">
         <v>9.012022</v>
       </c>
       <c r="R23" s="1">
-        <v>952.738000</v>
+        <v>952.73800000000006</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.665000</v>
+        <v>-104.66500000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>32453.730038</v>
+        <v>32453.730038000002</v>
       </c>
       <c r="V23" s="1">
-        <v>9.014925</v>
+        <v>9.0149249999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>959.330000</v>
+        <v>959.33</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.642400</v>
+        <v>-90.642399999999995</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>32464.266552</v>
+        <v>32464.266552000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>9.017852</v>
+        <v>9.0178519999999995</v>
       </c>
       <c r="AB23" s="1">
-        <v>966.662000</v>
+        <v>966.66200000000003</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.785800</v>
+        <v>-80.785799999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>32475.079834</v>
       </c>
       <c r="AF23" s="1">
-        <v>9.020856</v>
+        <v>9.0208560000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>971.544000</v>
+        <v>971.54399999999998</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.215600</v>
+        <v>-80.215599999999995</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>32485.630734</v>
+        <v>32485.630733999998</v>
       </c>
       <c r="AK23" s="1">
-        <v>9.023786</v>
+        <v>9.0237859999999994</v>
       </c>
       <c r="AL23" s="1">
-        <v>979.430000</v>
+        <v>979.43</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.819600</v>
+        <v>-87.819599999999994</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>32496.860655</v>
       </c>
       <c r="AP23" s="1">
-        <v>9.026906</v>
+        <v>9.0269060000000003</v>
       </c>
       <c r="AQ23" s="1">
-        <v>988.514000</v>
+        <v>988.51400000000001</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.647000</v>
+        <v>-102.64700000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>32507.408111</v>
+        <v>32507.408111000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>9.029836</v>
+        <v>9.0298359999999995</v>
       </c>
       <c r="AV23" s="1">
-        <v>999.792000</v>
+        <v>999.79200000000003</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.195000</v>
+        <v>-124.19499999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>32518.001931</v>
+        <v>32518.001930999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>9.032778</v>
+        <v>9.0327780000000004</v>
       </c>
       <c r="BA23" s="1">
-        <v>1009.330000</v>
+        <v>1009.33</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.939000</v>
+        <v>-142.93899999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>32528.641351</v>
+        <v>32528.641350999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>9.035734</v>
+        <v>9.0357339999999997</v>
       </c>
       <c r="BF23" s="1">
-        <v>1054.210000</v>
+        <v>1054.21</v>
       </c>
       <c r="BG23" s="1">
-        <v>-228.198000</v>
+        <v>-228.19800000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>32539.663445</v>
+        <v>32539.663444999998</v>
       </c>
       <c r="BJ23" s="1">
-        <v>9.038795</v>
+        <v>9.0387950000000004</v>
       </c>
       <c r="BK23" s="1">
-        <v>1133.360000</v>
+        <v>1133.3599999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-365.439000</v>
+        <v>-365.43900000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>32549.898360</v>
+        <v>32549.898359999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>9.041638</v>
+        <v>9.0416380000000007</v>
       </c>
       <c r="BP23" s="1">
-        <v>1264.720000</v>
+        <v>1264.72</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-578.007000</v>
+        <v>-578.00699999999995</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>32560.565817</v>
+        <v>32560.565816999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>9.044602</v>
+        <v>9.0446019999999994</v>
       </c>
       <c r="BU23" s="1">
-        <v>1412.170000</v>
+        <v>1412.17</v>
       </c>
       <c r="BV23" s="1">
-        <v>-805.791000</v>
+        <v>-805.79100000000005</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>32571.435644</v>
+        <v>32571.435644000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>9.047621</v>
+        <v>9.0476209999999995</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1575.190000</v>
+        <v>1575.19</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1043.310000</v>
+        <v>-1043.31</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>32584.453177</v>
+        <v>32584.453176999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>9.051237</v>
+        <v>9.0512370000000004</v>
       </c>
       <c r="CE23" s="1">
-        <v>1985.840000</v>
+        <v>1985.84</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1600.260000</v>
+        <v>-1600.26</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>32411.878128</v>
       </c>
       <c r="B24" s="1">
-        <v>9.003299</v>
+        <v>9.0032990000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>905.942000</v>
+        <v>905.94200000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-197.676000</v>
+        <v>-197.67599999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>32422.702304</v>
+        <v>32422.702303999999</v>
       </c>
       <c r="G24" s="1">
-        <v>9.006306</v>
+        <v>9.0063060000000004</v>
       </c>
       <c r="H24" s="1">
-        <v>923.440000</v>
+        <v>923.44</v>
       </c>
       <c r="I24" s="1">
-        <v>-167.459000</v>
+        <v>-167.459</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>32433.132179</v>
       </c>
       <c r="L24" s="1">
-        <v>9.009203</v>
+        <v>9.0092029999999994</v>
       </c>
       <c r="M24" s="1">
-        <v>945.923000</v>
+        <v>945.923</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.119000</v>
+        <v>-120.119</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>32443.629540</v>
+        <v>32443.629540000002</v>
       </c>
       <c r="Q24" s="1">
-        <v>9.012119</v>
+        <v>9.0121190000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>952.709000</v>
+        <v>952.70899999999995</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.647000</v>
+        <v>-104.64700000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>32454.074262</v>
+        <v>32454.074261999998</v>
       </c>
       <c r="V24" s="1">
-        <v>9.015021</v>
+        <v>9.0150210000000008</v>
       </c>
       <c r="W24" s="1">
-        <v>959.368000</v>
+        <v>959.36800000000005</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.611200</v>
+        <v>-90.611199999999997</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>32464.616762</v>
+        <v>32464.616762000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>9.017949</v>
+        <v>9.0179489999999998</v>
       </c>
       <c r="AB24" s="1">
-        <v>966.645000</v>
+        <v>966.64499999999998</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.849500</v>
+        <v>-80.849500000000006</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>32475.734588</v>
+        <v>32475.734587999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>9.021037</v>
+        <v>9.0210369999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>971.535000</v>
+        <v>971.53499999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.180200</v>
+        <v>-80.180199999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>32486.284461</v>
+        <v>32486.284460999999</v>
       </c>
       <c r="AK24" s="1">
         <v>9.023968</v>
       </c>
       <c r="AL24" s="1">
-        <v>979.411000</v>
+        <v>979.41099999999994</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.794800</v>
+        <v>-87.794799999999995</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>32497.297660</v>
+        <v>32497.29766</v>
       </c>
       <c r="AP24" s="1">
-        <v>9.027027</v>
+        <v>9.0270270000000004</v>
       </c>
       <c r="AQ24" s="1">
-        <v>988.528000</v>
+        <v>988.52800000000002</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.662000</v>
+        <v>-102.66200000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>32507.772674</v>
       </c>
       <c r="AU24" s="1">
-        <v>9.029937</v>
+        <v>9.0299370000000003</v>
       </c>
       <c r="AV24" s="1">
-        <v>999.782000</v>
+        <v>999.78200000000004</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.191000</v>
+        <v>-124.191</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>32518.387561</v>
       </c>
       <c r="AZ24" s="1">
-        <v>9.032885</v>
+        <v>9.0328850000000003</v>
       </c>
       <c r="BA24" s="1">
-        <v>1009.320000</v>
+        <v>1009.32</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.970000</v>
+        <v>-142.97</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>32529.003892</v>
+        <v>32529.003892000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>9.035834</v>
+        <v>9.0358339999999995</v>
       </c>
       <c r="BF24" s="1">
-        <v>1054.230000</v>
+        <v>1054.23</v>
       </c>
       <c r="BG24" s="1">
-        <v>-228.190000</v>
+        <v>-228.19</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>32540.081077</v>
+        <v>32540.081076999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>9.038911</v>
+        <v>9.0389110000000006</v>
       </c>
       <c r="BK24" s="1">
-        <v>1133.370000</v>
+        <v>1133.3699999999999</v>
       </c>
       <c r="BL24" s="1">
-        <v>-365.430000</v>
+        <v>-365.43</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>32550.319960</v>
+        <v>32550.319960000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>9.041756</v>
+        <v>9.0417559999999995</v>
       </c>
       <c r="BP24" s="1">
-        <v>1264.690000</v>
+        <v>1264.69</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-578.008000</v>
+        <v>-578.00800000000004</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>32560.990394</v>
       </c>
       <c r="BT24" s="1">
-        <v>9.044720</v>
+        <v>9.0447199999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1412.230000</v>
+        <v>1412.23</v>
       </c>
       <c r="BV24" s="1">
-        <v>-805.589000</v>
+        <v>-805.58900000000006</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>32571.877082</v>
+        <v>32571.877081999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>9.047744</v>
+        <v>9.0477439999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1575.180000</v>
+        <v>1575.18</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1042.960000</v>
+        <v>-1042.96</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>32585.003209</v>
+        <v>32585.003208999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>9.051390</v>
+        <v>9.0513899999999996</v>
       </c>
       <c r="CE24" s="1">
-        <v>1986.150000</v>
+        <v>1986.15</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1598.790000</v>
+        <v>-1598.79</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>32412.559118</v>
+        <v>32412.559118000001</v>
       </c>
       <c r="B25" s="1">
-        <v>9.003489</v>
+        <v>9.0034890000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>905.800000</v>
+        <v>905.8</v>
       </c>
       <c r="D25" s="1">
-        <v>-197.741000</v>
+        <v>-197.74100000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>32423.049043</v>
+        <v>32423.049042999999</v>
       </c>
       <c r="G25" s="1">
-        <v>9.006403</v>
+        <v>9.0064030000000006</v>
       </c>
       <c r="H25" s="1">
-        <v>923.294000</v>
+        <v>923.29399999999998</v>
       </c>
       <c r="I25" s="1">
-        <v>-167.611000</v>
+        <v>-167.61099999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>32433.477393</v>
+        <v>32433.477393000001</v>
       </c>
       <c r="L25" s="1">
-        <v>9.009299</v>
+        <v>9.0092990000000004</v>
       </c>
       <c r="M25" s="1">
-        <v>946.109000</v>
+        <v>946.10900000000004</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.215000</v>
+        <v>-120.215</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>32443.976707</v>
+        <v>32443.976707000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>9.012216</v>
+        <v>9.0122160000000004</v>
       </c>
       <c r="R25" s="1">
-        <v>952.769000</v>
+        <v>952.76900000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.627000</v>
+        <v>-104.627</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>32454.406085</v>
+        <v>32454.406084999999</v>
       </c>
       <c r="V25" s="1">
-        <v>9.015113</v>
+        <v>9.0151129999999995</v>
       </c>
       <c r="W25" s="1">
-        <v>959.298000</v>
+        <v>959.298</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.628900</v>
+        <v>-90.628900000000002</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>32465.269960</v>
+        <v>32465.269960000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>9.018131</v>
+        <v>9.0181310000000003</v>
       </c>
       <c r="AB25" s="1">
-        <v>966.578000</v>
+        <v>966.57799999999997</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.822700</v>
+        <v>-80.822699999999998</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>32476.113499</v>
+        <v>32476.113498999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>9.021143</v>
+        <v>9.0211430000000004</v>
       </c>
       <c r="AG25" s="1">
-        <v>971.566000</v>
+        <v>971.56600000000003</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.244400</v>
+        <v>-80.244399999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>32486.677323</v>
       </c>
       <c r="AK25" s="1">
-        <v>9.024077</v>
+        <v>9.0240770000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>979.425000</v>
+        <v>979.42499999999995</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.808000</v>
+        <v>-87.808000000000007</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>32497.657724</v>
+        <v>32497.657724000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>9.027127</v>
+        <v>9.0271270000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>988.521000</v>
+        <v>988.52099999999996</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.685000</v>
+        <v>-102.685</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>32508.137198</v>
       </c>
       <c r="AU25" s="1">
-        <v>9.030038</v>
+        <v>9.0300379999999993</v>
       </c>
       <c r="AV25" s="1">
-        <v>999.797000</v>
+        <v>999.79700000000003</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.160000</v>
+        <v>-124.16</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>32518.748610</v>
+        <v>32518.748609999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>9.032986</v>
+        <v>9.0329859999999993</v>
       </c>
       <c r="BA25" s="1">
-        <v>1009.330000</v>
+        <v>1009.33</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.951000</v>
+        <v>-142.95099999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>32529.425026</v>
+        <v>32529.425026000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>9.035951</v>
+        <v>9.0359510000000007</v>
       </c>
       <c r="BF25" s="1">
-        <v>1054.240000</v>
+        <v>1054.24</v>
       </c>
       <c r="BG25" s="1">
-        <v>-228.215000</v>
+        <v>-228.215</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>32540.421796</v>
+        <v>32540.421795999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>9.039006</v>
+        <v>9.0390060000000005</v>
       </c>
       <c r="BK25" s="1">
-        <v>1133.370000</v>
+        <v>1133.3699999999999</v>
       </c>
       <c r="BL25" s="1">
-        <v>-365.448000</v>
+        <v>-365.44799999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>32550.718780</v>
+        <v>32550.718779999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>9.041866</v>
+        <v>9.0418660000000006</v>
       </c>
       <c r="BP25" s="1">
-        <v>1264.710000</v>
+        <v>1264.71</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-577.999000</v>
+        <v>-577.99900000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>32561.403098</v>
+        <v>32561.403097999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>9.044834</v>
+        <v>9.0448339999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>1412.140000</v>
+        <v>1412.14</v>
       </c>
       <c r="BV25" s="1">
-        <v>-805.635000</v>
+        <v>-805.63499999999999</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>32572.337370</v>
+        <v>32572.337370000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>9.047871</v>
+        <v>9.0478710000000007</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1575.150000</v>
+        <v>1575.15</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1043.200000</v>
+        <v>-1043.2</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>32585.533928</v>
+        <v>32585.533928000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>9.051537</v>
+        <v>9.0515369999999997</v>
       </c>
       <c r="CE25" s="1">
-        <v>1986.660000</v>
+        <v>1986.66</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1600.200000</v>
+        <v>-1600.2</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>32412.906318</v>
+        <v>32412.906318000001</v>
       </c>
       <c r="B26" s="1">
-        <v>9.003585</v>
+        <v>9.0035849999999993</v>
       </c>
       <c r="C26" s="1">
-        <v>906.044000</v>
+        <v>906.04399999999998</v>
       </c>
       <c r="D26" s="1">
-        <v>-197.614000</v>
+        <v>-197.614</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>32423.394720</v>
+        <v>32423.39472</v>
       </c>
       <c r="G26" s="1">
-        <v>9.006499</v>
+        <v>9.0064989999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>923.219000</v>
+        <v>923.21900000000005</v>
       </c>
       <c r="I26" s="1">
-        <v>-167.661000</v>
+        <v>-167.661</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>32433.828097</v>
+        <v>32433.828097000001</v>
       </c>
       <c r="L26" s="1">
-        <v>9.009397</v>
+        <v>9.0093969999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>945.971000</v>
+        <v>945.971</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.112000</v>
+        <v>-120.11199999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>32444.637378</v>
+        <v>32444.637377999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>9.012399</v>
+        <v>9.0123990000000003</v>
       </c>
       <c r="R26" s="1">
-        <v>952.782000</v>
+        <v>952.78200000000004</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.600000</v>
+        <v>-104.6</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>32455.076218</v>
+        <v>32455.076217999998</v>
       </c>
       <c r="V26" s="1">
-        <v>9.015299</v>
+        <v>9.0152990000000006</v>
       </c>
       <c r="W26" s="1">
-        <v>959.260000</v>
+        <v>959.26</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.574800</v>
+        <v>-90.574799999999996</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>32465.660312</v>
       </c>
       <c r="AA26" s="1">
-        <v>9.018239</v>
+        <v>9.0182389999999995</v>
       </c>
       <c r="AB26" s="1">
-        <v>966.560000</v>
+        <v>966.56</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.802800</v>
+        <v>-80.802800000000005</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>32476.459209</v>
+        <v>32476.459209000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>9.021239</v>
+        <v>9.0212389999999996</v>
       </c>
       <c r="AG26" s="1">
-        <v>971.501000</v>
+        <v>971.50099999999998</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.235500</v>
+        <v>-80.235500000000002</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>32487.025485</v>
+        <v>32487.025484999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>9.024174</v>
+        <v>9.0241740000000004</v>
       </c>
       <c r="AL26" s="1">
-        <v>979.417000</v>
+        <v>979.41700000000003</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.822200</v>
+        <v>-87.822199999999995</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>32498.017821</v>
+        <v>32498.017821000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>9.027227</v>
+        <v>9.0272269999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>988.526000</v>
+        <v>988.52599999999995</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.637000</v>
+        <v>-102.637</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>32508.551887</v>
+        <v>32508.551887000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>9.030153</v>
+        <v>9.0301530000000003</v>
       </c>
       <c r="AV26" s="1">
-        <v>999.778000</v>
+        <v>999.77800000000002</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.185000</v>
+        <v>-124.185</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>32519.171696</v>
+        <v>32519.171696000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>9.033103</v>
+        <v>9.0331030000000005</v>
       </c>
       <c r="BA26" s="1">
-        <v>1009.320000</v>
+        <v>1009.32</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.946000</v>
+        <v>-142.946</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>32529.726563</v>
@@ -6814,90 +7230,91 @@
         <v>9.036035</v>
       </c>
       <c r="BF26" s="1">
-        <v>1054.240000</v>
+        <v>1054.24</v>
       </c>
       <c r="BG26" s="1">
-        <v>-228.188000</v>
+        <v>-228.18799999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>32540.810659</v>
+        <v>32540.810658999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>9.039114</v>
+        <v>9.0391139999999996</v>
       </c>
       <c r="BK26" s="1">
-        <v>1133.370000</v>
+        <v>1133.3699999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-365.408000</v>
+        <v>-365.40800000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>32551.138855</v>
+        <v>32551.138855000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>9.041983</v>
+        <v>9.0419830000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1264.710000</v>
+        <v>1264.71</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-578.039000</v>
+        <v>-578.03899999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>32561.834087</v>
+        <v>32561.834086999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>9.044954</v>
+        <v>9.0449540000000006</v>
       </c>
       <c r="BU26" s="1">
-        <v>1412.190000</v>
+        <v>1412.19</v>
       </c>
       <c r="BV26" s="1">
-        <v>-805.567000</v>
+        <v>-805.56700000000001</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>32572.898346</v>
+        <v>32572.898346000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>9.048027</v>
+        <v>9.0480269999999994</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1575.250000</v>
+        <v>1575.25</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1043.230000</v>
+        <v>-1043.23</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>32586.049799</v>
       </c>
       <c r="CD26" s="1">
-        <v>9.051680</v>
+        <v>9.0516799999999993</v>
       </c>
       <c r="CE26" s="1">
-        <v>1987.560000</v>
+        <v>1987.56</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1598.940000</v>
+        <v>-1598.94</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>